--- a/Recharge/June2021Recharge.xlsx
+++ b/Recharge/June2021Recharge.xlsx
@@ -24,6 +24,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="S7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I23" authorId="0">
       <text>
         <r>
@@ -51,6 +74,154 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="O32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+5000-Recharge
+3000-Jio Phone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1000-Cash
+1000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1200-Cash
+800-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+6000-Recharge
+3000- Jio Phone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+500-Cash
+2500-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+4000-Digital
+1700-Cash</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="216">
   <si>
@@ -707,10 +878,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -730,46 +901,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,16 +939,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,14 +970,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -836,24 +992,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,11 +1014,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -879,13 +1055,8 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,7 +1125,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1233,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,163 +1299,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,56 +1340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1224,6 +1351,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,6 +1388,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1260,18 +1426,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,134 +1460,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,6 +1694,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1850,11 +2030,11 @@
   <dimension ref="A1:AX114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="Q49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="U69" sqref="U69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1998,22 +2178,22 @@
       <c r="A2" s="17"/>
       <c r="B2" s="26">
         <f>SUM(F3:F121)</f>
-        <v>455900</v>
+        <v>800900</v>
       </c>
       <c r="D2" s="18">
         <f>SUM(G3:G121)</f>
-        <v>193440</v>
+        <v>552240</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="27">
         <f>G2/1.04+H2</f>
-        <v>455900</v>
+        <v>800900</v>
       </c>
       <c r="G2" s="18">
         <f>SUM(I2:AM2)</f>
-        <v>193440</v>
+        <v>552240</v>
       </c>
       <c r="H2" s="28">
         <f>SUM(H3:H121)</f>
@@ -2037,39 +2217,39 @@
       </c>
       <c r="M2" s="15">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>44720</v>
       </c>
       <c r="N2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35360</v>
       </c>
       <c r="O2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58240</v>
       </c>
       <c r="P2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54080</v>
       </c>
       <c r="Q2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54080</v>
       </c>
       <c r="R2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44720</v>
       </c>
       <c r="S2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34320</v>
       </c>
       <c r="T2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40560</v>
       </c>
       <c r="U2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="V2" s="15">
         <f t="shared" si="0"/>
@@ -2153,11 +2333,11 @@
       </c>
       <c r="F3" s="15">
         <f>G3/1.04+H3</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G3" s="15">
         <f>SUM(I3:AM3)</f>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H3" s="29">
         <v>0</v>
@@ -2174,7 +2354,9 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1">
+        <v>2080</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -2219,11 +2401,11 @@
       </c>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F35" si="1">G4/1.04+H4</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" ref="G4:G35" si="2">SUM(I4:AM4)</f>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H4" s="29">
         <v>0</v>
@@ -2232,7 +2414,9 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <v>2080</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2286,11 +2470,11 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H5" s="29">
         <v>0</v>
@@ -2305,10 +2489,14 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>2080</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1">
+        <v>2080</v>
+      </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -2355,11 +2543,11 @@
       </c>
       <c r="F6" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>12480</v>
       </c>
       <c r="H6" s="29">
         <v>0</v>
@@ -2374,12 +2562,20 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1">
+        <v>2080</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="S6" s="1">
+        <v>2080</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2080</v>
+      </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -2426,11 +2622,11 @@
       </c>
       <c r="F7" s="15">
         <f t="shared" si="1"/>
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>20800</v>
       </c>
       <c r="H7" s="29">
         <v>17000</v>
@@ -2446,12 +2642,22 @@
       <c r="M7" s="1">
         <v>2080</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="N7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4160</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2080</v>
+      </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <v>4160</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -2499,11 +2705,11 @@
       </c>
       <c r="F8" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H8" s="29">
         <v>0</v>
@@ -2516,7 +2722,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1">
+        <v>2080</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2565,11 +2773,11 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H9" s="29">
         <v>0</v>
@@ -2581,7 +2789,9 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2632,11 +2842,11 @@
       </c>
       <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="15">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H10" s="29">
         <v>5000</v>
@@ -2647,10 +2857,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>5200</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>5200</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2698,11 +2912,11 @@
       </c>
       <c r="F11" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H11" s="29">
         <v>0</v>
@@ -2715,9 +2929,13 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>2080</v>
+      </c>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1">
+        <v>2080</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -2828,11 +3046,11 @@
       </c>
       <c r="F13" s="15">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="15">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H13" s="29">
         <v>5000</v>
@@ -2845,10 +3063,14 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1">
+        <v>5200</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1">
+        <v>5200</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -2894,11 +3116,11 @@
       </c>
       <c r="F14" s="15">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>18500</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>12480</v>
       </c>
       <c r="H14" s="29">
         <v>6500</v>
@@ -2911,12 +3133,20 @@
       <c r="L14" s="1">
         <v>2080</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>2080</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1">
+        <v>2080</v>
+      </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="Q14" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2080</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -2965,11 +3195,11 @@
       </c>
       <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H15" s="29">
         <v>2000</v>
@@ -2981,7 +3211,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3029,11 +3261,11 @@
       </c>
       <c r="F16" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H16" s="29">
         <v>2000</v>
@@ -3045,7 +3277,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>1040</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3168,11 +3402,11 @@
       </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H18" s="29">
         <v>2000</v>
@@ -3187,7 +3421,9 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1">
+        <v>2080</v>
+      </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -3232,11 +3468,11 @@
       </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H19" s="29">
         <v>0</v>
@@ -3246,7 +3482,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>3120</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -3296,11 +3534,11 @@
       </c>
       <c r="F20" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H20" s="29">
         <v>0</v>
@@ -3314,10 +3552,14 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1">
+        <v>2080</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -3362,11 +3604,11 @@
       </c>
       <c r="F21" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H21" s="29">
         <v>2000</v>
@@ -3375,12 +3617,16 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>2080</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="R21" s="1">
+        <v>2080</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -3490,11 +3736,11 @@
       </c>
       <c r="F23" s="15">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="2"/>
-        <v>8320</v>
+        <v>16640</v>
       </c>
       <c r="H23" s="29">
         <v>4000</v>
@@ -3509,14 +3755,22 @@
       <c r="L23" s="1">
         <v>2080</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1">
+        <v>2080</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2080</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="R23" s="1">
+        <v>2080</v>
+      </c>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="1">
+        <v>2080</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -3560,11 +3814,11 @@
       </c>
       <c r="F24" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H24" s="29">
         <v>0</v>
@@ -3578,7 +3832,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3626,11 +3882,11 @@
       </c>
       <c r="F25" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H25" s="29">
         <v>2000</v>
@@ -3643,7 +3899,9 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1">
+        <v>2080</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -3692,11 +3950,11 @@
       </c>
       <c r="F26" s="15">
         <f t="shared" si="1"/>
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="2"/>
-        <v>11440</v>
+        <v>16640</v>
       </c>
       <c r="H26" s="29">
         <v>2000</v>
@@ -3717,7 +3975,9 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="1">
+        <v>5200</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -3764,11 +4024,11 @@
       </c>
       <c r="F27" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H27" s="29">
         <v>4000</v>
@@ -3780,10 +4040,14 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="S27" s="1">
+        <v>2080</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -3828,11 +4092,11 @@
       </c>
       <c r="F28" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G28" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H28" s="29">
         <v>2000</v>
@@ -3842,10 +4106,14 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>2080</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1">
+        <v>2080</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3892,11 +4160,11 @@
       </c>
       <c r="F29" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H29" s="29">
         <v>0</v>
@@ -3910,7 +4178,9 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3958,11 +4228,11 @@
       </c>
       <c r="F30" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H30" s="29">
         <v>4000</v>
@@ -3974,11 +4244,15 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="T30" s="1">
+        <v>2080</v>
+      </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -4022,11 +4296,11 @@
       </c>
       <c r="F31" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G31" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H31" s="29">
         <v>0</v>
@@ -4042,7 +4316,9 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="R31" s="1">
+        <v>2080</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -4088,11 +4364,11 @@
       </c>
       <c r="F32" s="15">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>20800</v>
       </c>
       <c r="H32" s="29">
         <v>10000</v>
@@ -4104,13 +4380,19 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="N32" s="1">
+        <v>5200</v>
+      </c>
+      <c r="O32" s="1">
+        <v>5200</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="T32" s="1">
+        <v>5200</v>
+      </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -4154,11 +4436,11 @@
       </c>
       <c r="F33" s="15">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H33" s="29">
         <v>4000</v>
@@ -4173,7 +4455,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="1">
+        <v>2080</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -4220,11 +4504,11 @@
       </c>
       <c r="F34" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G34" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H34" s="29">
         <v>2000</v>
@@ -4237,10 +4521,14 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1">
+        <v>2080</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="R34" s="1">
+        <v>2080</v>
+      </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -4286,11 +4574,11 @@
       </c>
       <c r="F35" s="15">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>10400</v>
       </c>
       <c r="H35" s="29">
         <v>3000</v>
@@ -4301,14 +4589,22 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1">
+        <v>2080</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="O35" s="1">
+        <v>2080</v>
+      </c>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="1">
+        <v>2080</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="1">
+        <v>2080</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -4416,11 +4712,11 @@
       </c>
       <c r="F37" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>17680</v>
       </c>
       <c r="H37" s="29">
         <v>0</v>
@@ -4437,10 +4733,18 @@
         <v>2080</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="O37" s="1">
+        <v>2080</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R37" s="1">
+        <v>5200</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -4550,11 +4854,11 @@
       </c>
       <c r="F39" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G39" s="15">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H39" s="29">
         <v>0</v>
@@ -4569,7 +4873,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="1">
+        <v>5200</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -4619,11 +4925,11 @@
       </c>
       <c r="F40" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G40" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H40" s="29">
         <v>2000</v>
@@ -4632,13 +4938,17 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1">
+        <v>2080</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="S40" s="1">
+        <v>2080</v>
+      </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -4683,11 +4993,11 @@
       </c>
       <c r="F41" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G41" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H41" s="29">
         <v>0</v>
@@ -4701,7 +5011,9 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="P41" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4749,11 +5061,11 @@
       </c>
       <c r="F42" s="15">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H42" s="29">
         <v>2000</v>
@@ -4765,7 +5077,9 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>2080</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -4815,11 +5129,11 @@
       </c>
       <c r="F43" s="15">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>14560</v>
       </c>
       <c r="H43" s="29">
         <v>4000</v>
@@ -4835,13 +5149,21 @@
         <v>2080</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>2080</v>
+      </c>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="P43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2080</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="T43" s="1">
+        <v>2080</v>
+      </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -4885,11 +5207,11 @@
       </c>
       <c r="F44" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G44" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H44" s="29">
         <v>2000</v>
@@ -4901,7 +5223,9 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="P44" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -4949,11 +5273,11 @@
       </c>
       <c r="F45" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H45" s="29">
         <v>0</v>
@@ -4967,7 +5291,9 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="P45" s="1">
+        <v>5200</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -5015,11 +5341,11 @@
       </c>
       <c r="F46" s="15">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>12480</v>
       </c>
       <c r="H46" s="29">
         <v>7000</v>
@@ -5034,11 +5360,19 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="O46" s="1">
+        <v>2080</v>
+      </c>
+      <c r="P46" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+      <c r="R46" s="1">
+        <v>2080</v>
+      </c>
+      <c r="S46" s="1">
+        <v>2080</v>
+      </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -5083,11 +5417,11 @@
       </c>
       <c r="F47" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H47" s="29">
         <v>2000</v>
@@ -5102,12 +5436,18 @@
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="O47" s="1">
+        <v>2080</v>
+      </c>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="1">
+        <v>2080</v>
+      </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="T47" s="1">
+        <v>2080</v>
+      </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -5151,11 +5491,11 @@
       </c>
       <c r="F48" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H48" s="29">
         <v>2000</v>
@@ -5167,7 +5507,9 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="P48" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -5215,11 +5557,11 @@
       </c>
       <c r="F49" s="15">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="G49" s="15">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H49" s="29">
         <v>10000</v>
@@ -5236,7 +5578,9 @@
       <c r="L49" s="1">
         <v>2080</v>
       </c>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1">
+        <v>2080</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -5287,11 +5631,11 @@
       </c>
       <c r="F50" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G50" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H50" s="29">
         <v>5000</v>
@@ -5302,10 +5646,14 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="O50" s="1">
+        <v>2080</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
+      <c r="R50" s="1">
+        <v>2080</v>
+      </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -5351,11 +5699,11 @@
       </c>
       <c r="F51" s="15">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G51" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H51" s="29">
         <v>4000</v>
@@ -5365,7 +5713,9 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>2080</v>
+      </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -5479,11 +5829,11 @@
       </c>
       <c r="F53" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="G53" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>10400</v>
       </c>
       <c r="H53" s="29">
         <v>4000</v>
@@ -5496,12 +5846,20 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+      <c r="O53" s="1">
+        <v>2080</v>
+      </c>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="Q53" s="1">
+        <v>2080</v>
+      </c>
       <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+      <c r="S53" s="1">
+        <v>2080</v>
+      </c>
+      <c r="T53" s="1">
+        <v>2080</v>
+      </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -5545,11 +5903,11 @@
       </c>
       <c r="F54" s="15">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>14560</v>
       </c>
       <c r="H54" s="29">
         <v>4000</v>
@@ -5562,15 +5920,25 @@
       <c r="L54" s="1">
         <v>2080</v>
       </c>
-      <c r="M54" s="1"/>
+      <c r="M54" s="1">
+        <v>2080</v>
+      </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="O54" s="1">
+        <v>2080</v>
+      </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="Q54" s="1">
+        <v>2080</v>
+      </c>
+      <c r="R54" s="1">
+        <v>2080</v>
+      </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
+      <c r="U54" s="1">
+        <v>2080</v>
+      </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
@@ -5808,11 +6176,11 @@
       </c>
       <c r="F58" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G58" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H58" s="29">
         <v>2000</v>
@@ -5825,7 +6193,9 @@
         <v>2080</v>
       </c>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="M58" s="1">
+        <v>2080</v>
+      </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -5876,11 +6246,11 @@
       </c>
       <c r="F59" s="15">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G59" s="15">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>20800</v>
       </c>
       <c r="H59" s="29">
         <v>5000</v>
@@ -5893,12 +6263,18 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="O59" s="1">
+        <v>5200</v>
+      </c>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="Q59" s="1">
+        <v>5200</v>
+      </c>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="T59" s="1">
+        <v>5200</v>
+      </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -5942,11 +6318,11 @@
       </c>
       <c r="F60" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G60" s="15">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H60" s="29">
         <v>0</v>
@@ -5960,11 +6336,15 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="P60" s="1">
+        <v>5200</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="1">
+        <v>5200</v>
+      </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -6075,11 +6455,11 @@
       </c>
       <c r="F62" s="15">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="G62" s="15">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H62" s="29">
         <v>2000</v>
@@ -6092,10 +6472,14 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="O62" s="1">
+        <v>5200</v>
+      </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="1">
+        <v>5200</v>
+      </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -6279,11 +6663,11 @@
       </c>
       <c r="F65" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G65" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H65" s="24">
         <v>0</v>
@@ -6295,13 +6679,17 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>2080</v>
+      </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="T65" s="1">
+        <v>2080</v>
+      </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
@@ -6346,11 +6734,11 @@
       </c>
       <c r="F66" s="15">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="G66" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>7280</v>
       </c>
       <c r="H66" s="29">
         <v>6000</v>
@@ -6364,13 +6752,19 @@
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+      <c r="N66" s="34">
+        <v>1040</v>
+      </c>
+      <c r="O66" s="1">
+        <v>2080</v>
+      </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="T66" s="1">
+        <v>2080</v>
+      </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
@@ -6415,11 +6809,11 @@
       </c>
       <c r="F67" s="15">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G67" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H67" s="29">
         <v>3000</v>
@@ -6433,7 +6827,9 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
+      <c r="R67" s="1">
+        <v>2080</v>
+      </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -6479,11 +6875,11 @@
       </c>
       <c r="F68" s="15">
         <f t="shared" ref="F68:F96" si="5">G68/1.04+H68</f>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G68" s="15">
         <f t="shared" ref="G68:G96" si="6">SUM(I68:AM68)</f>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H68" s="29">
         <v>4000</v>
@@ -6496,13 +6892,17 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="O68" s="1">
+        <v>2080</v>
+      </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
+      <c r="U68" s="1">
+        <v>2080</v>
+      </c>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
@@ -6545,11 +6945,11 @@
       </c>
       <c r="F69" s="15">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G69" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H69" s="29">
         <v>0</v>
@@ -6566,7 +6966,9 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
+      <c r="S69" s="1">
+        <v>2080</v>
+      </c>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
@@ -6677,11 +7079,11 @@
       </c>
       <c r="F71" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G71" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H71" s="29">
         <v>0</v>
@@ -6694,7 +7096,9 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="Q71" s="1">
+        <v>2080</v>
+      </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -6741,11 +7145,11 @@
       </c>
       <c r="F72" s="15">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G72" s="15">
         <f t="shared" si="6"/>
-        <v>10400</v>
+        <v>26000</v>
       </c>
       <c r="H72" s="29">
         <v>0</v>
@@ -6760,11 +7164,17 @@
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="O72" s="1">
+        <v>5200</v>
+      </c>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="1">
+        <v>5200</v>
+      </c>
       <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
+      <c r="S72" s="1">
+        <v>5200</v>
+      </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -6809,11 +7219,11 @@
       </c>
       <c r="F73" s="15">
         <f t="shared" si="5"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G73" s="15">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H73" s="29">
         <v>2000</v>
@@ -6827,10 +7237,16 @@
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="N73" s="1">
+        <v>2080</v>
+      </c>
       <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="P73" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>2080</v>
+      </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -6878,11 +7294,11 @@
       </c>
       <c r="F74" s="15">
         <f t="shared" si="5"/>
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G74" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>8320</v>
       </c>
       <c r="H74" s="29">
         <v>6000</v>
@@ -6894,13 +7310,19 @@
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="N74" s="1">
+        <v>2080</v>
+      </c>
       <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="P74" s="1">
+        <v>2080</v>
+      </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
+      <c r="T74" s="1">
+        <v>2080</v>
+      </c>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
@@ -7078,11 +7500,11 @@
       </c>
       <c r="F77" s="15">
         <f t="shared" si="5"/>
-        <v>10300</v>
+        <v>14300</v>
       </c>
       <c r="G77" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H77" s="29">
         <v>8300</v>
@@ -7094,10 +7516,14 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="N77" s="1">
+        <v>2080</v>
+      </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="1">
+        <v>2080</v>
+      </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -7144,11 +7570,11 @@
       </c>
       <c r="F78" s="15">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G78" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="H78" s="29">
         <v>5000</v>
@@ -7158,11 +7584,15 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="N78" s="1">
+        <v>5200</v>
+      </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="R78" s="1">
+        <v>5200</v>
+      </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
@@ -7208,11 +7638,11 @@
       </c>
       <c r="F79" s="15">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G79" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H79" s="29">
         <v>1000</v>
@@ -7223,11 +7653,15 @@
       <c r="L79" s="1">
         <v>2080</v>
       </c>
-      <c r="M79" s="1"/>
+      <c r="M79" s="1">
+        <v>2080</v>
+      </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="Q79" s="1">
+        <v>2080</v>
+      </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -7337,11 +7771,11 @@
       </c>
       <c r="F81" s="15">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G81" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H81" s="29">
         <v>2000</v>
@@ -7356,7 +7790,9 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
+      <c r="S81" s="1">
+        <v>2080</v>
+      </c>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
@@ -7464,11 +7900,11 @@
       </c>
       <c r="F83" s="15">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G83" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H83" s="29">
         <v>2000</v>
@@ -7477,7 +7913,9 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="M83" s="1">
+        <v>2080</v>
+      </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -7591,11 +8029,11 @@
       </c>
       <c r="F85" s="15">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G85" s="15">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H85" s="29">
         <v>5000</v>
@@ -7606,12 +8044,16 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="M85" s="1">
+        <v>5200</v>
+      </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="R85" s="1">
+        <v>5200</v>
+      </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -7790,11 +8232,11 @@
       </c>
       <c r="F88" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G88" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H88" s="29">
         <v>0</v>
@@ -7810,7 +8252,9 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
+      <c r="T88" s="1">
+        <v>2080</v>
+      </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
@@ -7914,11 +8358,11 @@
       </c>
       <c r="F90" s="15">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G90" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H90" s="29">
         <v>1000</v>
@@ -7935,7 +8379,9 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
+      <c r="S90" s="1">
+        <v>2080</v>
+      </c>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
@@ -8168,11 +8614,11 @@
       </c>
       <c r="F94" s="15">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G94" s="15">
         <f t="shared" si="6"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H94" s="29">
         <v>3000</v>
@@ -8185,7 +8631,9 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
+      <c r="O94" s="1">
+        <v>1040</v>
+      </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -8992,11 +9440,11 @@
   <dimension ref="A1:AV112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="N80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L99" sqref="L99"/>
+      <selection pane="bottomRight" activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9142,133 +9590,133 @@
       <c r="E2" s="17"/>
       <c r="F2" s="18">
         <f>SUM(H3:H121)</f>
-        <v>216500</v>
+        <v>557200</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="20">
-        <f>SUM(I2:AM2)</f>
-        <v>216500</v>
+        <f t="shared" ref="H2:H35" si="0">SUM(I2:AM2)</f>
+        <v>557200</v>
       </c>
       <c r="I2" s="15">
-        <f>SUM(I3:I121)</f>
+        <f t="shared" ref="I2:AL2" si="1">SUM(I3:I121)</f>
         <v>54000</v>
       </c>
       <c r="J2" s="15">
-        <f t="shared" ref="J2:AL2" si="0">SUM(J3:J121)</f>
+        <f t="shared" si="1"/>
         <v>43500</v>
       </c>
       <c r="K2" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54500</v>
       </c>
       <c r="L2" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64500</v>
       </c>
       <c r="M2" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>48700</v>
+      </c>
+      <c r="N2" s="15">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
+      <c r="O2" s="15">
+        <f t="shared" si="1"/>
+        <v>34200</v>
+      </c>
+      <c r="P2" s="15">
+        <f t="shared" si="1"/>
+        <v>82500</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" si="1"/>
+        <v>37000</v>
+      </c>
+      <c r="R2" s="15">
+        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="S2" s="15">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="T2" s="15">
+        <f t="shared" si="1"/>
+        <v>45500</v>
+      </c>
+      <c r="U2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N2" s="15">
-        <f t="shared" si="0"/>
+      <c r="V2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O2" s="15">
-        <f t="shared" si="0"/>
+      <c r="W2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P2" s="15">
-        <f t="shared" si="0"/>
+      <c r="X2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q2" s="15">
-        <f t="shared" si="0"/>
+      <c r="Y2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R2" s="15">
-        <f t="shared" si="0"/>
+      <c r="Z2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AA2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AB2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AC2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AD2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AE2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AF2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AG2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AH2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AI2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AJ2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC2" s="15">
-        <f t="shared" si="0"/>
+      <c r="AK2" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK2" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AL2" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM2" s="1"/>
@@ -9296,8 +9744,8 @@
         <v>10</v>
       </c>
       <c r="H3" s="15">
-        <f>SUM(I3:AM3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -9305,7 +9753,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="23">
+        <v>2000</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -9363,8 +9813,8 @@
         <v>11</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" ref="H4:H35" si="1">SUM(I4:AM4)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -9376,7 +9826,9 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="23">
+        <v>2000</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -9424,8 +9876,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -9436,7 +9888,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="23">
+        <v>4000</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -9491,8 +9945,8 @@
         <v>15</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -9504,8 +9958,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="23">
+        <v>4000</v>
+      </c>
+      <c r="R6" s="23">
+        <v>2000</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -9560,8 +10018,8 @@
         <v>17</v>
       </c>
       <c r="H7" s="15">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+        <f t="shared" si="0"/>
+        <v>24000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -9574,10 +10032,14 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="23">
+        <v>5000</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="23">
+        <v>7000</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -9628,8 +10090,8 @@
         <v>19</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -9641,7 +10103,9 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1">
+        <v>2000</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -9694,8 +10158,8 @@
         <v>20</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -9708,7 +10172,9 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1">
+        <v>2000</v>
+      </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -9758,8 +10224,8 @@
         <v>22</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -9769,9 +10235,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1">
+        <v>5000</v>
+      </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>5000</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -9827,7 +10297,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -9888,7 +10358,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="I12" s="1"/>
@@ -9954,8 +10424,8 @@
         <v>26</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -9963,14 +10433,20 @@
         <v>5000</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="23">
+        <v>5000</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1">
+        <v>5000</v>
+      </c>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="23">
+        <v>5000</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -10023,8 +10499,8 @@
         <v>27</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="1"/>
-        <v>3500</v>
+        <f t="shared" si="0"/>
+        <v>14300</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -10033,13 +10509,19 @@
         <v>3500</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="23">
+        <v>3800</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>4000</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="23">
+        <v>3000</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -10089,7 +10571,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I15" s="1"/>
@@ -10158,8 +10640,8 @@
         <v>30</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -10168,7 +10650,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="23">
+        <v>1000</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -10222,7 +10706,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -10283,8 +10767,8 @@
         <v>34</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -10293,7 +10777,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="23">
+        <v>1000</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -10350,8 +10836,8 @@
         <v>35</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -10359,7 +10845,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="23">
+        <v>3000</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -10417,7 +10905,7 @@
         <v>37</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="1"/>
@@ -10484,8 +10972,8 @@
         <v>38</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -10501,7 +10989,9 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1">
+        <v>2000</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -10552,14 +11042,16 @@
         <v>39</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="23">
+        <v>1000</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -10619,8 +11111,8 @@
         <v>40</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -10628,14 +11120,18 @@
         <v>8000</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <v>4000</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="23">
+        <v>6000</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -10682,8 +11178,8 @@
         <v>41</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -10695,8 +11191,12 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="Q24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1000</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -10751,8 +11251,8 @@
         <v>42</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
@@ -10760,11 +11260,15 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>2000</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>2000</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -10820,8 +11324,8 @@
         <v>43</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="23">
@@ -10831,12 +11335,16 @@
       <c r="L26" s="23">
         <v>4000</v>
       </c>
-      <c r="M26" s="1"/>
+      <c r="M26" s="23">
+        <v>5000</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="R26" s="23">
+        <v>5000</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -10885,8 +11393,8 @@
         <v>44</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -10896,7 +11404,9 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="1">
+        <v>3000</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -10949,8 +11459,8 @@
         <v>45</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
@@ -10961,7 +11471,9 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -11015,8 +11527,8 @@
         <v>46</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -11030,7 +11542,9 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="23">
+        <v>2000</v>
+      </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -11078,8 +11592,8 @@
         <v>47</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
@@ -11093,7 +11607,9 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="S30" s="1">
+        <v>2000</v>
+      </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -11144,8 +11660,8 @@
         <v>48</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -11158,7 +11674,9 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="R31" s="23">
+        <v>2000</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -11210,8 +11728,8 @@
         <v>49</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
       <c r="I32" s="23">
         <v>10000</v>
@@ -11219,12 +11737,18 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="23">
+        <v>5000</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="23">
+        <v>5000</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="R32" s="23">
+        <v>5000</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -11270,8 +11794,8 @@
         <v>50</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
@@ -11288,7 +11812,9 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="T33" s="1">
+        <v>3000</v>
+      </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -11338,8 +11864,8 @@
         <v>52</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="I34" s="1">
         <v>4000</v>
@@ -11350,10 +11876,14 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="S34" s="1">
+        <v>2000</v>
+      </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -11401,8 +11931,8 @@
         <v>53</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>11000</v>
       </c>
       <c r="I35" s="1">
         <v>3000</v>
@@ -11412,14 +11942,22 @@
       <c r="L35" s="1">
         <v>1000</v>
       </c>
-      <c r="M35" s="1"/>
+      <c r="M35" s="23">
+        <v>2000</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="O35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P35" s="23">
+        <v>2000</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="23">
+        <v>2000</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -11531,19 +12069,27 @@
       </c>
       <c r="H37" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="N37" s="23">
+        <v>6000</v>
+      </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="P37" s="23">
+        <v>2000</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>4000</v>
+      </c>
       <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="S37" s="1">
+        <v>5000</v>
+      </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -11653,7 +12199,7 @@
       </c>
       <c r="H39" s="15">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -11668,7 +12214,9 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+      <c r="T39" s="23">
+        <v>5000</v>
+      </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -11722,7 +12270,7 @@
       </c>
       <c r="H40" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -11733,11 +12281,15 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="P40" s="23">
+        <v>2000</v>
+      </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
+      <c r="T40" s="23">
+        <v>2000</v>
+      </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -11848,7 +12400,7 @@
       </c>
       <c r="H42" s="15">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I42" s="1">
         <v>2000</v>
@@ -11861,7 +12413,9 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="P42" s="23">
+        <v>2000</v>
+      </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -11916,7 +12470,7 @@
       </c>
       <c r="H43" s="15">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="I43" s="1">
         <v>4000</v>
@@ -11928,11 +12482,19 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="O43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="R43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S43" s="1">
+        <v>2000</v>
+      </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -11981,7 +12543,7 @@
       </c>
       <c r="H44" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="23">
@@ -11992,7 +12554,9 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="P44" s="23">
+        <v>2000</v>
+      </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -12044,7 +12608,7 @@
       </c>
       <c r="H45" s="15">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -12057,7 +12621,9 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="R45" s="23">
+        <v>5000</v>
+      </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -12110,7 +12676,7 @@
       </c>
       <c r="H46" s="15">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="I46" s="1">
         <v>7000</v>
@@ -12123,11 +12689,15 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="P46" s="23">
+        <v>6000</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="T46" s="1">
+        <v>4000</v>
+      </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -12175,7 +12745,7 @@
       </c>
       <c r="H47" s="15">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -12185,11 +12755,15 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="O47" s="23">
+        <v>2000</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="S47" s="23">
+        <v>4000</v>
+      </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -12244,7 +12818,7 @@
       </c>
       <c r="H48" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -12253,7 +12827,9 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="P48" s="23">
+        <v>2000</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -12311,7 +12887,7 @@
       </c>
       <c r="H49" s="15">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="I49" s="1">
         <v>8000</v>
@@ -12321,10 +12897,14 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1">
+        <v>6000</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -12382,7 +12962,7 @@
       </c>
       <c r="H50" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -12391,7 +12971,9 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="P50" s="23">
+        <v>7000</v>
+      </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -12446,7 +13028,7 @@
       </c>
       <c r="H51" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
@@ -12456,12 +13038,16 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="O51" s="23">
+        <v>3000</v>
+      </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="T51" s="1">
+        <v>1000</v>
+      </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
@@ -12570,7 +13156,7 @@
       </c>
       <c r="H53" s="15">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="I53" s="23">
         <v>4000</v>
@@ -12582,10 +13168,14 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="Q53" s="23">
+        <v>4000</v>
+      </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+      <c r="T53" s="23">
+        <v>4000</v>
+      </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -12630,7 +13220,7 @@
       </c>
       <c r="H54" s="15">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="I54" s="1">
         <v>4000</v>
@@ -12643,11 +13233,15 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="P54" s="23">
+        <v>6000</v>
+      </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="T54" s="1">
+        <v>4000</v>
+      </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
@@ -12762,7 +13356,7 @@
       </c>
       <c r="H56" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -12771,7 +13365,9 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="P56" s="1">
+        <v>1500</v>
+      </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -12955,7 +13551,7 @@
       </c>
       <c r="H59" s="15">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -12968,7 +13564,9 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="R59" s="1">
+        <v>10000</v>
+      </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -13018,7 +13616,7 @@
       </c>
       <c r="H60" s="15">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
@@ -13029,7 +13627,9 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="P60" s="23">
+        <v>5000</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -13084,7 +13684,7 @@
       </c>
       <c r="H61" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -13095,7 +13695,9 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="R61" s="1">
+        <v>2000</v>
+      </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -13151,7 +13753,7 @@
       </c>
       <c r="H62" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="I62" s="1">
         <v>2000</v>
@@ -13162,10 +13764,14 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="P62" s="23">
+        <v>5000</v>
+      </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
+      <c r="S62" s="23">
+        <v>8000</v>
+      </c>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -13348,20 +13954,24 @@
       </c>
       <c r="H65" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="N65" s="23">
+        <v>2000</v>
+      </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="T65" s="23">
+        <v>2000</v>
+      </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
@@ -13412,7 +14022,7 @@
       </c>
       <c r="H66" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I66" s="23">
         <v>1000</v>
@@ -13423,10 +14033,14 @@
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="N66" s="23">
+        <v>1000</v>
+      </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="Q66" s="23">
+        <v>2000</v>
+      </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -13477,7 +14091,7 @@
       </c>
       <c r="H67" s="15">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
@@ -13492,7 +14106,9 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="T67" s="1">
+        <v>2500</v>
+      </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -13597,7 +14213,7 @@
       </c>
       <c r="H69" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -13606,7 +14222,9 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="P69" s="23">
+        <v>2000</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -13658,7 +14276,7 @@
       </c>
       <c r="H70" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -13667,7 +14285,9 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="P70" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -13777,15 +14397,19 @@
       </c>
       <c r="H72" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
+      <c r="M72" s="23">
+        <v>10000</v>
+      </c>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="O72" s="23">
+        <v>5000</v>
+      </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -13838,7 +14462,7 @@
       </c>
       <c r="H73" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -13849,7 +14473,9 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="P73" s="23">
+        <v>4000</v>
+      </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -13907,7 +14533,7 @@
       </c>
       <c r="H74" s="15">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -13919,7 +14545,9 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="Q74" s="23">
+        <v>4000</v>
+      </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -14028,7 +14656,7 @@
       </c>
       <c r="H76" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -14037,7 +14665,9 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="P76" s="1">
+        <v>2000</v>
+      </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -14095,15 +14725,19 @@
       </c>
       <c r="H77" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="M77" s="23">
+        <v>5700</v>
+      </c>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="O77" s="1">
+        <v>1200</v>
+      </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -14159,7 +14793,7 @@
       </c>
       <c r="H78" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -14169,7 +14803,9 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="O78" s="23">
+        <v>5000</v>
+      </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -14225,13 +14861,15 @@
       </c>
       <c r="H79" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
+      <c r="M79" s="1">
+        <v>3000</v>
+      </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -14347,7 +14985,7 @@
       </c>
       <c r="H81" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -14357,7 +14995,9 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="Q81" s="23">
+        <v>2000</v>
+      </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -14581,7 +15221,7 @@
       </c>
       <c r="H85" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="I85" s="1">
         <v>5000</v>
@@ -14592,7 +15232,9 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="P85" s="23">
+        <v>10000</v>
+      </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -14891,7 +15533,7 @@
       </c>
       <c r="H90" s="15">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -14904,7 +15546,9 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
+      <c r="R90" s="23">
+        <v>1000</v>
+      </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -15130,7 +15774,7 @@
       </c>
       <c r="H94" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -15139,7 +15783,9 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="P94" s="23">
+        <v>5000</v>
+      </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -15901,16 +16547,17 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D94"/>
+      <selection activeCell="D1" sqref="A1:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -15946,11 +16593,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>239400</v>
+        <v>243700</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>239400</v>
+        <v>243700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -15968,7 +16615,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -16010,7 +16657,7 @@
       </c>
       <c r="D6" s="10">
         <f>Orders!F6-Collection!H6</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16025,10 +16672,10 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:4">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -16043,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -16073,7 +16720,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -16085,7 +16732,7 @@
       </c>
       <c r="D11" s="10">
         <f>Orders!F11-Collection!H11</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -16115,7 +16762,7 @@
       </c>
       <c r="D13" s="10">
         <f>Orders!F13-Collection!H13</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -16130,10 +16777,10 @@
       </c>
       <c r="D14" s="10">
         <f>Orders!F14-Collection!H14</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" spans="1:4">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -16145,7 +16792,7 @@
       </c>
       <c r="D15" s="10">
         <f>Orders!F15-Collection!H15</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -16190,10 +16837,10 @@
       </c>
       <c r="D18" s="10">
         <f>Orders!F18-Collection!H18</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -16220,10 +16867,10 @@
       </c>
       <c r="D20" s="10">
         <f>Orders!F20-Collection!H20</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -16235,7 +16882,7 @@
       </c>
       <c r="D21" s="10">
         <f>Orders!F21-Collection!H21</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -16250,7 +16897,7 @@
       </c>
       <c r="D22" s="10">
         <f>Orders!F22-Collection!H22</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -16265,10 +16912,10 @@
       </c>
       <c r="D23" s="10">
         <f>Orders!F23-Collection!H23</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -16295,7 +16942,7 @@
       </c>
       <c r="D25" s="10">
         <f>Orders!F25-Collection!H25</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -16310,7 +16957,7 @@
       </c>
       <c r="D26" s="10">
         <f>Orders!F26-Collection!H26</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -16325,7 +16972,7 @@
       </c>
       <c r="D27" s="10">
         <f>Orders!F27-Collection!H27</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -16340,10 +16987,10 @@
       </c>
       <c r="D28" s="10">
         <f>Orders!F28-Collection!H28</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -16358,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -16370,10 +17017,10 @@
       </c>
       <c r="D30" s="10">
         <f>Orders!F30-Collection!H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -16415,10 +17062,10 @@
       </c>
       <c r="D33" s="10">
         <f>Orders!F33-Collection!H33</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -16445,10 +17092,10 @@
       </c>
       <c r="D35" s="10">
         <f>Orders!F35-Collection!H35</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -16475,10 +17122,10 @@
       </c>
       <c r="D37" s="10">
         <f>Orders!F37-Collection!H37</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>51</v>
       </c>
@@ -16493,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>51</v>
       </c>
@@ -16508,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -16523,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:4">
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
@@ -16535,10 +17182,10 @@
       </c>
       <c r="D41" s="10">
         <f>Orders!F41-Collection!H41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
@@ -16568,7 +17215,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
@@ -16583,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:4">
+    <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
@@ -16610,7 +17257,7 @@
       </c>
       <c r="D46" s="10">
         <f>Orders!F46-Collection!H46</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -16644,18 +17291,18 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="12">
         <v>7479799801</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="14">
         <f>Orders!F49-Collection!H49</f>
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -16670,7 +17317,7 @@
       </c>
       <c r="D50" s="10">
         <f>Orders!F50-Collection!H50</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -16685,10 +17332,10 @@
       </c>
       <c r="D51" s="10">
         <f>Orders!F51-Collection!H51</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>64</v>
       </c>
@@ -16733,7 +17380,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
@@ -16760,10 +17407,10 @@
       </c>
       <c r="D56" s="10">
         <f>Orders!F56-Collection!H56</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>64</v>
       </c>
@@ -16778,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -16790,10 +17437,10 @@
       </c>
       <c r="D58" s="10">
         <f>Orders!F58-Collection!H58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>77</v>
       </c>
@@ -16805,10 +17452,10 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -16820,7 +17467,7 @@
       </c>
       <c r="D60" s="10">
         <f>Orders!F60-Collection!H60</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -16835,7 +17482,7 @@
       </c>
       <c r="D61" s="10">
         <f>Orders!F61-Collection!H61</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -16850,7 +17497,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -16868,7 +17515,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>82</v>
       </c>
@@ -16910,7 +17557,7 @@
       </c>
       <c r="D66" s="10">
         <f>Orders!F66-Collection!H66</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -16925,10 +17572,10 @@
       </c>
       <c r="D67" s="10">
         <f>Orders!F67-Collection!H67</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>93</v>
       </c>
@@ -16940,7 +17587,7 @@
       </c>
       <c r="D68" s="10">
         <f>Orders!F68-Collection!H68</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -16970,10 +17617,10 @@
       </c>
       <c r="D70" s="10">
         <f>Orders!F70-Collection!H70</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>93</v>
       </c>
@@ -16985,7 +17632,7 @@
       </c>
       <c r="D71" s="10">
         <f>Orders!F71-Collection!H71</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -17003,7 +17650,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>93</v>
       </c>
@@ -17015,10 +17662,10 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
@@ -17030,10 +17677,10 @@
       </c>
       <c r="D74" s="10">
         <f>Orders!F74-Collection!H74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -17049,18 +17696,18 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="8">
         <v>8271027441</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="10">
         <f>Orders!F76-Collection!H76</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -17075,10 +17722,10 @@
       </c>
       <c r="D77" s="10">
         <f>Orders!F77-Collection!H77</f>
-        <v>10300</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="1:4">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>103</v>
       </c>
@@ -17090,7 +17737,7 @@
       </c>
       <c r="D78" s="10">
         <f>Orders!F78-Collection!H78</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -17105,10 +17752,10 @@
       </c>
       <c r="D79" s="10">
         <f>Orders!F79-Collection!H79</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -17134,7 +17781,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -17145,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>111</v>
       </c>
@@ -17157,10 +17804,10 @@
       </c>
       <c r="D83" s="10">
         <f>Orders!F83-Collection!H83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -17201,7 +17848,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -17216,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>118</v>
       </c>
@@ -17228,10 +17875,10 @@
       </c>
       <c r="D88" s="10">
         <f>Orders!F88-Collection!H88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -17254,7 +17901,7 @@
       </c>
       <c r="D90" s="10">
         <f>Orders!F90-Collection!H90</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -17272,7 +17919,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
         <v>215</v>
       </c>
@@ -17287,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -17310,10 +17957,10 @@
       </c>
       <c r="D94" s="10">
         <f>Orders!F94-Collection!H94</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -17324,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -17337,25 +17984,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="500"/>
-        <filter val="1000"/>
-        <filter val="1100"/>
-        <filter val="2000"/>
-        <filter val="2500"/>
-        <filter val="3000"/>
-        <filter val="4000"/>
-        <filter val="5000"/>
-        <filter val="6000"/>
-        <filter val="7000"/>
-        <filter val="8000"/>
-        <filter val="10000"/>
-        <filter val="10300"/>
-        <filter val="11000"/>
-        <filter val="239400"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recharge/June2021Recharge.xlsx
+++ b/Recharge/June2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,34 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Smart1001Ajay</author>
     <author>Vijay</author>
   </authors>
   <commentList>
-    <comment ref="S7" authorId="0">
+    <comment ref="V5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Manual
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -47,7 +71,53 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0">
+    <comment ref="V7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -70,6 +140,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Manual
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -77,10 +170,172 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Smart1001Ajay</author>
     <author>Vijay</author>
   </authors>
   <commentList>
-    <comment ref="O32" authorId="0">
+    <comment ref="AA6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2000-Digital
+2000-Digitl</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2000-Cash
+3000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1650-Digital
+2500-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+200-Cash
+2000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+500-Cash
+1000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2000-Cash
+1800-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1500-Digital
+500-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O32" authorId="1">
       <text>
         <r>
           <rPr>
@@ -103,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P35" authorId="0">
+    <comment ref="P35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -126,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T35" authorId="0">
+    <comment ref="T35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -149,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N37" authorId="0">
+    <comment ref="N37" authorId="1">
       <text>
         <r>
           <rPr>
@@ -172,7 +427,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="O51" authorId="0">
+    <comment ref="AC37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1000-Cash
+4000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -195,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M77" authorId="0">
+    <comment ref="M77" authorId="1">
       <text>
         <r>
           <rPr>
@@ -218,6 +496,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1400-Cash
+1400-Digital</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -792,7 +1093,7 @@
     <t>Amresh Kr.</t>
   </si>
   <si>
-    <t>Amresh Kr./HONSI/GAUTAM</t>
+    <t>Amresh Kr./HONSI/GAUTAM/Sanjeev Canara bank</t>
   </si>
   <si>
     <t>9931812966/9572985032</t>
@@ -879,10 +1180,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -901,22 +1202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -925,15 +1210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,43 +1218,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -992,15 +1232,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,9 +1270,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,11 +1323,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,9 +1338,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1055,8 +1351,13 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,7 +1426,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,13 +1456,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,61 +1498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,13 +1516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +1540,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,61 +1606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,39 +1647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1384,6 +1658,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,17 +1686,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,12 +1729,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,134 +1767,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1693,10 +2000,13 @@
     <xf numFmtId="178" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2030,11 +2340,11 @@
   <dimension ref="A1:AX114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="Q49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U69" sqref="U69"/>
+      <selection pane="bottomRight" activeCell="AL39" sqref="AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2167,33 +2477,33 @@
         <v>44377</v>
       </c>
       <c r="AM1" s="1"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:39">
       <c r="A2" s="17"/>
       <c r="B2" s="26">
         <f>SUM(F3:F121)</f>
-        <v>800900</v>
+        <v>1460900</v>
       </c>
       <c r="D2" s="18">
         <f>SUM(G3:G121)</f>
-        <v>552240</v>
+        <v>1238640</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="27">
         <f>G2/1.04+H2</f>
-        <v>800900</v>
+        <v>1460900</v>
       </c>
       <c r="G2" s="18">
         <f>SUM(I2:AM2)</f>
-        <v>552240</v>
+        <v>1238640</v>
       </c>
       <c r="H2" s="28">
         <f>SUM(H3:H121)</f>
@@ -2249,75 +2559,75 @@
       </c>
       <c r="U2" s="15">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>47840</v>
       </c>
       <c r="V2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40560</v>
       </c>
       <c r="W2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37440</v>
       </c>
       <c r="X2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42640</v>
       </c>
       <c r="Y2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39520</v>
       </c>
       <c r="Z2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="AA2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AB2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AC2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41600</v>
       </c>
       <c r="AD2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50960</v>
       </c>
       <c r="AE2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="AF2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="AG2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39520</v>
       </c>
       <c r="AH2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38480</v>
       </c>
       <c r="AI2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AJ2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56160</v>
       </c>
       <c r="AK2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34320</v>
       </c>
       <c r="AL2" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37440</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -2333,11 +2643,11 @@
       </c>
       <c r="F3" s="15">
         <f>G3/1.04+H3</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G3" s="15">
         <f>SUM(I3:AM3)</f>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H3" s="29">
         <v>0</v>
@@ -2364,12 +2674,16 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="AA3" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AF3" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -2401,11 +2715,11 @@
       </c>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F35" si="1">G4/1.04+H4</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" ref="G4:G35" si="2">SUM(I4:AM4)</f>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H4" s="29">
         <v>0</v>
@@ -2425,7 +2739,9 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="1">
+        <v>2080</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -2441,7 +2757,9 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AL4" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -2470,11 +2788,11 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>17680</v>
       </c>
       <c r="H5" s="29">
         <v>0</v>
@@ -2498,21 +2816,30 @@
         <v>2080</v>
       </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="V5" s="33">
+        <v>3120</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="Z5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="AG5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="AJ5" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -2543,11 +2870,11 @@
       </c>
       <c r="F6" s="15">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="2"/>
-        <v>12480</v>
+        <v>22880</v>
       </c>
       <c r="H6" s="29">
         <v>0</v>
@@ -2578,17 +2905,27 @@
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>2080</v>
+      </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Y6" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AD6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -2622,11 +2959,11 @@
       </c>
       <c r="F7" s="15">
         <f t="shared" si="1"/>
-        <v>37000</v>
+        <v>67000</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="2"/>
-        <v>20800</v>
+        <v>52000</v>
       </c>
       <c r="H7" s="29">
         <v>17000</v>
@@ -2659,24 +2996,50 @@
         <v>4160</v>
       </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="U7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4160</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AA7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AD7" s="1">
+        <v>4160</v>
+      </c>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AF7" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+      <c r="AH7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
+      <c r="AL7" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -2705,11 +3068,11 @@
       </c>
       <c r="F8" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H8" s="29">
         <v>0</v>
@@ -2732,21 +3095,27 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1">
+        <v>2080</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="AK8" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
@@ -2773,11 +3142,11 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>8320</v>
       </c>
       <c r="H9" s="29">
         <v>0</v>
@@ -2797,7 +3166,9 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="V9" s="1">
+        <v>2080</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -2807,9 +3178,13 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AF9" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="AH9" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -2842,11 +3217,11 @@
       </c>
       <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G10" s="15">
         <f t="shared" si="2"/>
-        <v>15600</v>
+        <v>36400</v>
       </c>
       <c r="H10" s="29">
         <v>5000</v>
@@ -2870,21 +3245,29 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="1">
+        <v>5200</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1">
+        <v>5200</v>
+      </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="AC10" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>5200</v>
+      </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -2912,11 +3295,11 @@
       </c>
       <c r="F11" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H11" s="29">
         <v>0</v>
@@ -2939,7 +3322,9 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1">
+        <v>2080</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -2950,7 +3335,9 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -2980,11 +3367,11 @@
       </c>
       <c r="F12" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H12" s="29">
         <v>2000</v>
@@ -3012,12 +3399,16 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -3046,11 +3437,11 @@
       </c>
       <c r="F13" s="15">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G13" s="15">
         <f t="shared" si="2"/>
-        <v>15600</v>
+        <v>36400</v>
       </c>
       <c r="H13" s="29">
         <v>5000</v>
@@ -3073,10 +3464,14 @@
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>5200</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1">
+        <v>5200</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -3084,10 +3479,14 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AF13" s="1">
+        <v>5200</v>
+      </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
+      <c r="AI13" s="1">
+        <v>5200</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -3116,11 +3515,11 @@
       </c>
       <c r="F14" s="15">
         <f t="shared" si="1"/>
-        <v>18500</v>
+        <v>34500</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="2"/>
-        <v>12480</v>
+        <v>29120</v>
       </c>
       <c r="H14" s="29">
         <v>6500</v>
@@ -3149,24 +3548,40 @@
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="U14" s="1">
+        <v>2080</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2080</v>
+      </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="X14" s="1">
+        <v>2080</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AG14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
+      <c r="AL14" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -3195,11 +3610,11 @@
       </c>
       <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>12480</v>
       </c>
       <c r="H15" s="29">
         <v>2000</v>
@@ -3219,21 +3634,31 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="1">
+        <v>2080</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
+      <c r="AJ15" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
@@ -3261,11 +3686,11 @@
       </c>
       <c r="F16" s="15">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H16" s="29">
         <v>2000</v>
@@ -3301,7 +3726,9 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
+      <c r="AL16" s="33">
+        <v>1040</v>
+      </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -3330,11 +3757,11 @@
       </c>
       <c r="F17" s="15">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G17" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H17" s="29">
         <v>5000</v>
@@ -3356,7 +3783,9 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="X17" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -3402,11 +3831,11 @@
       </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H18" s="29">
         <v>2000</v>
@@ -3437,7 +3866,9 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -3468,11 +3899,11 @@
       </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>12480</v>
       </c>
       <c r="H19" s="29">
         <v>0</v>
@@ -3491,7 +3922,9 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1">
+        <v>3120</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -3501,12 +3934,16 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="AE19" s="1">
+        <v>3120</v>
+      </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
+      <c r="AJ19" s="1">
+        <v>3120</v>
+      </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
@@ -3534,11 +3971,11 @@
       </c>
       <c r="F20" s="15">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>18720</v>
       </c>
       <c r="H20" s="29">
         <v>0</v>
@@ -3562,12 +3999,16 @@
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="1">
+        <v>2080</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="AA20" s="1">
+        <v>5200</v>
+      </c>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -3577,7 +4018,9 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
+      <c r="AK20" s="1">
+        <v>5200</v>
+      </c>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
@@ -3604,11 +4047,11 @@
       </c>
       <c r="F21" s="15">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H21" s="29">
         <v>2000</v>
@@ -3630,12 +4073,16 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="1">
+        <v>2080</v>
+      </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="AA21" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -3645,7 +4092,9 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
+      <c r="AK21" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
@@ -3672,11 +4121,11 @@
       </c>
       <c r="F22" s="15">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H22" s="29">
         <v>1000</v>
@@ -3697,7 +4146,9 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -3707,7 +4158,9 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
+      <c r="AI22" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
@@ -3736,11 +4189,11 @@
       </c>
       <c r="F23" s="15">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="2"/>
-        <v>16640</v>
+        <v>32240</v>
       </c>
       <c r="H23" s="29">
         <v>4000</v>
@@ -3771,21 +4224,33 @@
       <c r="T23" s="1">
         <v>2080</v>
       </c>
-      <c r="U23" s="1"/>
+      <c r="U23" s="1">
+        <v>2080</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+      <c r="X23" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+      <c r="AD23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
+      <c r="AF23" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
+      <c r="AI23" s="1">
+        <v>5200</v>
+      </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
@@ -3814,11 +4279,11 @@
       </c>
       <c r="F24" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H24" s="29">
         <v>0</v>
@@ -3847,14 +4312,18 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="AC24" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
@@ -3882,11 +4351,11 @@
       </c>
       <c r="F25" s="15">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>14560</v>
       </c>
       <c r="H25" s="29">
         <v>2000</v>
@@ -3909,20 +4378,30 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
+      <c r="W25" s="1">
+        <v>2080</v>
+      </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
+      <c r="AF25" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
+      <c r="AH25" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
+      <c r="AJ25" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -3950,11 +4429,11 @@
       </c>
       <c r="F26" s="15">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="2"/>
-        <v>16640</v>
+        <v>37440</v>
       </c>
       <c r="H26" s="29">
         <v>2000</v>
@@ -3981,19 +4460,27 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
+      <c r="U26" s="1">
+        <v>5200</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1">
+        <v>5200</v>
+      </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="AC26" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AG26" s="1">
+        <v>5200</v>
+      </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -4024,11 +4511,11 @@
       </c>
       <c r="F27" s="15">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>14560</v>
       </c>
       <c r="H27" s="29">
         <v>4000</v>
@@ -4051,20 +4538,30 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="W27" s="1">
+        <v>2080</v>
+      </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="Z27" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
+      <c r="AB27" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="AG27" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -4092,11 +4589,11 @@
       </c>
       <c r="F28" s="15">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="G28" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>12480</v>
       </c>
       <c r="H28" s="29">
         <v>2000</v>
@@ -4118,21 +4615,29 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="1">
+        <v>2080</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
+      <c r="AE28" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
+      <c r="AJ28" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -4160,11 +4665,11 @@
       </c>
       <c r="F29" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H29" s="29">
         <v>0</v>
@@ -4194,10 +4699,14 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="AD29" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AG29" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -4228,11 +4737,11 @@
       </c>
       <c r="F30" s="15">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H30" s="29">
         <v>4000</v>
@@ -4265,7 +4774,9 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AG30" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -4296,11 +4807,11 @@
       </c>
       <c r="F31" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H31" s="29">
         <v>0</v>
@@ -4323,15 +4834,21 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="W31" s="1">
+        <v>2080</v>
+      </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="AC31" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
+      <c r="AE31" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -4364,11 +4881,11 @@
       </c>
       <c r="F32" s="15">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="2"/>
-        <v>20800</v>
+        <v>52000</v>
       </c>
       <c r="H32" s="29">
         <v>10000</v>
@@ -4396,21 +4913,33 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
+      <c r="X32" s="1">
+        <v>5200</v>
+      </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
+      <c r="AB32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
+      <c r="AE32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
+      <c r="AH32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AK32" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -4436,11 +4965,11 @@
       </c>
       <c r="F33" s="15">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H33" s="29">
         <v>4000</v>
@@ -4463,19 +4992,25 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
+      <c r="W33" s="1">
+        <v>2080</v>
+      </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
+      <c r="AB33" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
+      <c r="AI33" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -4504,11 +5039,11 @@
       </c>
       <c r="F34" s="15">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G34" s="15">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>14560</v>
       </c>
       <c r="H34" s="29">
         <v>2000</v>
@@ -4536,19 +5071,27 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="Z34" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="AC34" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
+      <c r="AI34" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
+      <c r="AL34" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -4574,11 +5117,11 @@
       </c>
       <c r="F35" s="15">
         <f t="shared" si="1"/>
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>14560</v>
       </c>
       <c r="H35" s="29">
         <v>3000</v>
@@ -4612,9 +5155,13 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
+      <c r="AB35" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
+      <c r="AD35" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
@@ -4648,11 +5195,11 @@
       </c>
       <c r="F36" s="15">
         <f t="shared" ref="F36:F67" si="3">G36/1.04+H36</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" ref="G36:G67" si="4">SUM(I36:AM36)</f>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H36" s="29">
         <v>0</v>
@@ -4684,7 +5231,9 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
+      <c r="AJ36" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
@@ -4712,11 +5261,11 @@
       </c>
       <c r="F37" s="15">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="4"/>
-        <v>17680</v>
+        <v>33280</v>
       </c>
       <c r="H37" s="29">
         <v>0</v>
@@ -4749,20 +5298,26 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="W37" s="1">
+        <v>5200</v>
+      </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
+      <c r="AC37" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="1">
+        <v>5200</v>
+      </c>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
@@ -4854,11 +5409,11 @@
       </c>
       <c r="F39" s="15">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G39" s="15">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>20800</v>
       </c>
       <c r="H39" s="29">
         <v>0</v>
@@ -4886,7 +5441,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
+      <c r="AB39" s="1">
+        <v>5200</v>
+      </c>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
@@ -4896,7 +5453,9 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
+      <c r="AL39" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
@@ -4925,11 +5484,11 @@
       </c>
       <c r="F40" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G40" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H40" s="29">
         <v>2000</v>
@@ -4957,14 +5516,18 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
+      <c r="AB40" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
+      <c r="AI40" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
@@ -4993,11 +5556,11 @@
       </c>
       <c r="F41" s="15">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="G41" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>12480</v>
       </c>
       <c r="H41" s="29">
         <v>0</v>
@@ -5019,23 +5582,31 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="V41" s="1">
+        <v>2080</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
+      <c r="AB41" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
+      <c r="AF41" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
+      <c r="AL41" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
@@ -5061,11 +5632,11 @@
       </c>
       <c r="F42" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G42" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H42" s="29">
         <v>2000</v>
@@ -5086,7 +5657,9 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
+      <c r="U42" s="1">
+        <v>2080</v>
+      </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
@@ -5096,10 +5669,14 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
+      <c r="AE42" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
+      <c r="AH42" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -5129,11 +5706,11 @@
       </c>
       <c r="F43" s="15">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="4"/>
-        <v>14560</v>
+        <v>35360</v>
       </c>
       <c r="H43" s="29">
         <v>4000</v>
@@ -5164,24 +5741,44 @@
       <c r="T43" s="1">
         <v>2080</v>
       </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="U43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="V43" s="1">
+        <v>2080</v>
+      </c>
       <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
+      <c r="X43" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
+      <c r="Z43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
+      <c r="AD43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
+      <c r="AG43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
+      <c r="AL43" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
@@ -5207,11 +5804,11 @@
       </c>
       <c r="F44" s="15">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G44" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H44" s="29">
         <v>2000</v>
@@ -5232,7 +5829,9 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+      <c r="W44" s="1">
+        <v>2080</v>
+      </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -5273,11 +5872,11 @@
       </c>
       <c r="F45" s="15">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>31200</v>
       </c>
       <c r="H45" s="29">
         <v>0</v>
@@ -5298,16 +5897,22 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="U45" s="1">
+        <v>5200</v>
+      </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
+      <c r="Y45" s="1">
+        <v>5200</v>
+      </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
+      <c r="AD45" s="1">
+        <v>5200</v>
+      </c>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -5315,7 +5920,9 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
+      <c r="AL45" s="1">
+        <v>5200</v>
+      </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
@@ -5341,11 +5948,11 @@
       </c>
       <c r="F46" s="15">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="4"/>
-        <v>12480</v>
+        <v>27040</v>
       </c>
       <c r="H46" s="29">
         <v>7000</v>
@@ -5375,21 +5982,35 @@
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="V46" s="1">
+        <v>2080</v>
+      </c>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
+      <c r="Y46" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
+      <c r="AA46" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
+      <c r="AD46" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
+      <c r="AG46" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
+      <c r="AJ46" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
@@ -5417,11 +6038,11 @@
       </c>
       <c r="F47" s="15">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>18720</v>
       </c>
       <c r="H47" s="29">
         <v>2000</v>
@@ -5450,18 +6071,26 @@
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
+      <c r="W47" s="1">
+        <v>2080</v>
+      </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
+      <c r="Z47" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
+      <c r="AE47" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
+      <c r="AH47" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -5491,11 +6120,11 @@
       </c>
       <c r="F48" s="15">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H48" s="29">
         <v>2000</v>
@@ -5530,7 +6159,9 @@
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
+      <c r="AK48" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
@@ -5631,11 +6262,11 @@
       </c>
       <c r="F50" s="15">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G50" s="15">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="H50" s="29">
         <v>5000</v>
@@ -5659,17 +6290,23 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
+      <c r="X50" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
+      <c r="AD50" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
+      <c r="AH50" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
@@ -5699,11 +6336,11 @@
       </c>
       <c r="F51" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G51" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H51" s="29">
         <v>4000</v>
@@ -5731,12 +6368,16 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
+      <c r="AD51" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
+      <c r="AI51" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -5829,11 +6470,11 @@
       </c>
       <c r="F53" s="15">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="G53" s="15">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>18720</v>
       </c>
       <c r="H53" s="29">
         <v>4000</v>
@@ -5863,20 +6504,28 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
+      <c r="X53" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
+      <c r="AA53" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
+      <c r="AE53" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
+      <c r="AK53" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
@@ -5903,11 +6552,11 @@
       </c>
       <c r="F54" s="15">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="4"/>
-        <v>14560</v>
+        <v>27040</v>
       </c>
       <c r="H54" s="29">
         <v>4000</v>
@@ -5940,22 +6589,33 @@
         <v>2080</v>
       </c>
       <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
+      <c r="W54" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
+      <c r="Z54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
+      <c r="AD54" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
+      <c r="AJ54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
+      <c r="AL54" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
@@ -6047,11 +6707,11 @@
       </c>
       <c r="F56" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G56" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H56" s="29">
         <v>2000</v>
@@ -6071,21 +6731,29 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
+      <c r="X56" s="1">
+        <v>1040</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>1040</v>
+      </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
+      <c r="AF56" s="1">
+        <v>1040</v>
+      </c>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
+      <c r="AL56" s="33">
+        <v>1040</v>
+      </c>
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
@@ -6176,11 +6844,11 @@
       </c>
       <c r="F58" s="15">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G58" s="15">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H58" s="29">
         <v>2000</v>
@@ -6204,20 +6872,26 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
+      <c r="V58" s="1">
+        <v>2080</v>
+      </c>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
+      <c r="AB58" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
+      <c r="AI58" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
@@ -6246,11 +6920,11 @@
       </c>
       <c r="F59" s="15">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="15">
         <f t="shared" si="4"/>
-        <v>20800</v>
+        <v>36400</v>
       </c>
       <c r="H59" s="29">
         <v>5000</v>
@@ -6280,14 +6954,20 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
+      <c r="Z59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
+      <c r="AD59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
+      <c r="AG59" s="1">
+        <v>5200</v>
+      </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -6318,11 +6998,11 @@
       </c>
       <c r="F60" s="15">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G60" s="15">
         <f t="shared" si="4"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H60" s="29">
         <v>0</v>
@@ -6353,7 +7033,9 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
+      <c r="AC60" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
@@ -6388,11 +7070,11 @@
       </c>
       <c r="F61" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G61" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H61" s="29">
         <v>0</v>
@@ -6415,7 +7097,9 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
+      <c r="Y61" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
@@ -6455,11 +7139,11 @@
       </c>
       <c r="F62" s="15">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>37000</v>
       </c>
       <c r="G62" s="15">
         <f t="shared" si="4"/>
-        <v>15600</v>
+        <v>36400</v>
       </c>
       <c r="H62" s="29">
         <v>2000</v>
@@ -6482,22 +7166,30 @@
       </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
+      <c r="U62" s="1">
+        <v>5200</v>
+      </c>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
+      <c r="AA62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
+      <c r="AE62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
+      <c r="AJ62" s="1">
+        <v>5200</v>
+      </c>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
@@ -6596,11 +7288,11 @@
       </c>
       <c r="F64" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G64" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H64" s="29">
         <v>0</v>
@@ -6619,7 +7311,9 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
+      <c r="W64" s="1">
+        <v>5200</v>
+      </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -6663,11 +7357,11 @@
       </c>
       <c r="F65" s="15">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G65" s="15">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H65" s="24">
         <v>0</v>
@@ -6693,19 +7387,25 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
+      <c r="X65" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
+      <c r="AC65" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
+      <c r="AJ65" s="1">
+        <v>2080</v>
+      </c>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
@@ -6734,11 +7434,11 @@
       </c>
       <c r="F66" s="15">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="G66" s="15">
         <f t="shared" si="4"/>
-        <v>7280</v>
+        <v>11440</v>
       </c>
       <c r="H66" s="29">
         <v>6000</v>
@@ -6752,7 +7452,7 @@
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="34">
+      <c r="N66" s="35">
         <v>1040</v>
       </c>
       <c r="O66" s="1">
@@ -6768,7 +7468,9 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
+      <c r="X66" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -6776,7 +7478,9 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
+      <c r="AF66" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
@@ -6809,11 +7513,11 @@
       </c>
       <c r="F67" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G67" s="15">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H67" s="29">
         <v>3000</v>
@@ -6837,14 +7541,18 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
+      <c r="Z67" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
+      <c r="AG67" s="1">
+        <v>2080</v>
+      </c>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
@@ -6875,11 +7583,11 @@
       </c>
       <c r="F68" s="15">
         <f t="shared" ref="F68:F96" si="5">G68/1.04+H68</f>
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G68" s="15">
         <f t="shared" ref="G68:G96" si="6">SUM(I68:AM68)</f>
-        <v>6240</v>
+        <v>14560</v>
       </c>
       <c r="H68" s="29">
         <v>4000</v>
@@ -6904,18 +7612,26 @@
         <v>2080</v>
       </c>
       <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
+      <c r="W68" s="1">
+        <v>2080</v>
+      </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
+      <c r="AA68" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
+      <c r="AE68" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
+      <c r="AH68" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
@@ -6945,11 +7661,11 @@
       </c>
       <c r="F69" s="15">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="G69" s="15">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>13520</v>
       </c>
       <c r="H69" s="29">
         <v>0</v>
@@ -6982,11 +7698,19 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
+      <c r="AG69" s="1">
+        <v>1040</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
+      <c r="AJ69" s="1">
+        <v>2080</v>
+      </c>
+      <c r="AK69" s="33">
+        <v>4160</v>
+      </c>
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
@@ -7013,11 +7737,11 @@
       </c>
       <c r="F70" s="15">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G70" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H70" s="29">
         <v>0</v>
@@ -7047,7 +7771,9 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
+      <c r="AF70" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
@@ -7079,11 +7805,11 @@
       </c>
       <c r="F71" s="15">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G71" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H71" s="29">
         <v>0</v>
@@ -7110,7 +7836,9 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
+      <c r="AC71" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
@@ -7119,7 +7847,9 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
+      <c r="AL71" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
@@ -7145,11 +7875,11 @@
       </c>
       <c r="F72" s="15">
         <f t="shared" si="5"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="G72" s="15">
         <f t="shared" si="6"/>
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="H72" s="29">
         <v>0</v>
@@ -7177,21 +7907,31 @@
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
+      <c r="V72" s="1">
+        <v>5200</v>
+      </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
+      <c r="Y72" s="1">
+        <v>5200</v>
+      </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
+      <c r="AD72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
+      <c r="AG72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
+      <c r="AJ72" s="1">
+        <v>5200</v>
+      </c>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
@@ -7219,11 +7959,11 @@
       </c>
       <c r="F73" s="15">
         <f t="shared" si="5"/>
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="G73" s="15">
         <f t="shared" si="6"/>
-        <v>10400</v>
+        <v>24960</v>
       </c>
       <c r="H73" s="29">
         <v>2000</v>
@@ -7250,23 +7990,37 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
+      <c r="U73" s="1">
+        <v>2080</v>
+      </c>
       <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
+      <c r="W73" s="1">
+        <v>2080</v>
+      </c>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
+      <c r="Y73" s="1">
+        <v>2080</v>
+      </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
+      <c r="AB73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
+      <c r="AD73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
+      <c r="AF73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
+      <c r="AK73" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
@@ -7294,11 +8048,11 @@
       </c>
       <c r="F74" s="15">
         <f t="shared" si="5"/>
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="G74" s="15">
         <f t="shared" si="6"/>
-        <v>8320</v>
+        <v>14560</v>
       </c>
       <c r="H74" s="29">
         <v>6000</v>
@@ -7328,7 +8082,9 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
+      <c r="Z74" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
@@ -7337,9 +8093,13 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
+      <c r="AI74" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
+      <c r="AK74" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
@@ -7434,11 +8194,11 @@
       </c>
       <c r="F76" s="15">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G76" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H76" s="29">
         <v>1000</v>
@@ -7473,7 +8233,9 @@
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
+      <c r="AK76" s="1">
+        <v>2080</v>
+      </c>
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
@@ -7500,11 +8262,11 @@
       </c>
       <c r="F77" s="15">
         <f t="shared" si="5"/>
-        <v>14300</v>
+        <v>17300</v>
       </c>
       <c r="G77" s="15">
         <f t="shared" si="6"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H77" s="29">
         <v>8300</v>
@@ -7534,13 +8296,17 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
+      <c r="AB77" s="1">
+        <v>2080</v>
+      </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
+      <c r="AH77" s="33">
+        <v>1040</v>
+      </c>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
@@ -7570,11 +8336,11 @@
       </c>
       <c r="F78" s="15">
         <f t="shared" si="5"/>
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="G78" s="15">
         <f t="shared" si="6"/>
-        <v>10400</v>
+        <v>31200</v>
       </c>
       <c r="H78" s="29">
         <v>5000</v>
@@ -7598,20 +8364,28 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
+      <c r="X78" s="1">
+        <v>5200</v>
+      </c>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
+      <c r="AC78" s="1">
+        <v>5200</v>
+      </c>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
+      <c r="AH78" s="1">
+        <v>5200</v>
+      </c>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
+      <c r="AK78" s="1">
+        <v>5200</v>
+      </c>
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
@@ -7638,11 +8412,11 @@
       </c>
       <c r="F79" s="15">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G79" s="15">
         <f t="shared" si="6"/>
-        <v>6240</v>
+        <v>14560</v>
       </c>
       <c r="H79" s="29">
         <v>1000</v>
@@ -7671,14 +8445,22 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
+      <c r="AA79" s="1">
+        <v>2080</v>
+      </c>
       <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
+      <c r="AC79" s="1">
+        <v>2080</v>
+      </c>
       <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
+      <c r="AE79" s="1">
+        <v>2080</v>
+      </c>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
+      <c r="AH79" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
@@ -7771,11 +8553,11 @@
       </c>
       <c r="F81" s="15">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G81" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>8320</v>
       </c>
       <c r="H81" s="29">
         <v>2000</v>
@@ -7797,7 +8579,9 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
+      <c r="X81" s="1">
+        <v>2080</v>
+      </c>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
@@ -7808,10 +8592,14 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
+      <c r="AI81" s="1">
+        <v>2080</v>
+      </c>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
+      <c r="AL81" s="1">
+        <v>2080</v>
+      </c>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
@@ -7900,11 +8688,11 @@
       </c>
       <c r="F83" s="15">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G83" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H83" s="29">
         <v>2000</v>
@@ -7923,7 +8711,9 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
+      <c r="U83" s="1">
+        <v>2080</v>
+      </c>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
@@ -8029,11 +8819,11 @@
       </c>
       <c r="F85" s="15">
         <f t="shared" si="5"/>
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="G85" s="15">
         <f t="shared" si="6"/>
-        <v>15600</v>
+        <v>31200</v>
       </c>
       <c r="H85" s="29">
         <v>5000</v>
@@ -8056,10 +8846,14 @@
       </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
+      <c r="U85" s="1">
+        <v>5200</v>
+      </c>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
+      <c r="X85" s="1">
+        <v>5200</v>
+      </c>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
@@ -8067,7 +8861,9 @@
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
+      <c r="AF85" s="1">
+        <v>5200</v>
+      </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -8099,11 +8895,11 @@
       </c>
       <c r="F86" s="15">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G86" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H86" s="29">
         <v>5000</v>
@@ -8135,7 +8931,9 @@
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
+      <c r="AJ86" s="1">
+        <v>5200</v>
+      </c>
       <c r="AK86" s="1"/>
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
@@ -8232,11 +9030,11 @@
       </c>
       <c r="F88" s="15">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G88" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H88" s="29">
         <v>0</v>
@@ -8264,11 +9062,15 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
+      <c r="AD88" s="1">
+        <v>2080</v>
+      </c>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
+      <c r="AH88" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
@@ -8358,11 +9160,11 @@
       </c>
       <c r="F90" s="15">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G90" s="15">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H90" s="29">
         <v>1000</v>
@@ -8388,7 +9190,9 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
+      <c r="Z90" s="1">
+        <v>2080</v>
+      </c>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
@@ -8487,11 +9291,11 @@
       </c>
       <c r="F92" s="15">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G92" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H92" s="29">
         <v>2000</v>
@@ -8523,7 +9327,9 @@
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
+      <c r="AH92" s="1">
+        <v>2080</v>
+      </c>
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
@@ -8614,11 +9420,11 @@
       </c>
       <c r="F94" s="15">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G94" s="15">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>5200</v>
       </c>
       <c r="H94" s="29">
         <v>3000</v>
@@ -8643,11 +9449,15 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="Y94" s="1">
+        <v>1040</v>
+      </c>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
+      <c r="AC94" s="1">
+        <v>1040</v>
+      </c>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
@@ -8656,7 +9466,9 @@
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
       <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
+      <c r="AL94" s="1">
+        <v>1040</v>
+      </c>
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
@@ -9440,11 +10252,11 @@
   <dimension ref="A1:AV112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="N80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T100" sqref="T100"/>
+      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9590,14 +10402,14 @@
       <c r="E2" s="17"/>
       <c r="F2" s="18">
         <f>SUM(H3:H121)</f>
-        <v>557200</v>
+        <v>1242700</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="20">
         <f t="shared" ref="H2:H35" si="0">SUM(I2:AM2)</f>
-        <v>557200</v>
+        <v>1242700</v>
       </c>
       <c r="I2" s="15">
         <f t="shared" ref="I2:AL2" si="1">SUM(I3:I121)</f>
@@ -9649,75 +10461,75 @@
       </c>
       <c r="U2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="V2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="W2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84700</v>
       </c>
       <c r="X2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48500</v>
       </c>
       <c r="Y2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45500</v>
       </c>
       <c r="Z2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="AA2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42950</v>
       </c>
       <c r="AB2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="AC2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36850</v>
       </c>
       <c r="AD2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48500</v>
       </c>
       <c r="AE2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39700</v>
       </c>
       <c r="AF2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="AG2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="AH2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="AI2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AJ2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60700</v>
       </c>
       <c r="AK2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="AL2" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -9745,7 +10557,7 @@
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -9763,7 +10575,9 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="23">
+        <v>2000</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -9771,10 +10585,14 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="AE3" s="23">
+        <v>2000</v>
+      </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="AH3" s="1">
+        <v>2000</v>
+      </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -9814,7 +10632,7 @@
       </c>
       <c r="H4" s="15">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -9835,7 +10653,9 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="23">
+        <v>2000</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -9877,7 +10697,7 @@
       </c>
       <c r="H5" s="15">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>15500</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -9895,11 +10715,15 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1">
+        <v>5000</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="AA5" s="1">
+        <v>1500</v>
+      </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
@@ -9907,9 +10731,13 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
+      <c r="AI5" s="23">
+        <v>3000</v>
+      </c>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
+      <c r="AK5" s="1">
+        <v>2000</v>
+      </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -9946,7 +10774,7 @@
       </c>
       <c r="H6" s="15">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -9968,20 +10796,30 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="23">
+        <v>3000</v>
+      </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="23">
+        <v>3000</v>
+      </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="23">
+        <v>4000</v>
+      </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="AE6" s="23">
+        <v>2000</v>
+      </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
+      <c r="AJ6" s="23">
+        <v>2000</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
@@ -10019,7 +10857,7 @@
       </c>
       <c r="H7" s="15">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>53000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -10041,22 +10879,32 @@
         <v>7000</v>
       </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="23">
+        <v>5000</v>
+      </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1">
+        <v>2000</v>
+      </c>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="23">
+        <v>5000</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="AC7" s="23">
+        <v>7000</v>
+      </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+      <c r="AJ7" s="23">
+        <v>10000</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -10091,7 +10939,7 @@
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -10112,14 +10960,18 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
+      <c r="X8" s="1">
+        <v>2000</v>
+      </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="AE8" s="1">
+        <v>2000</v>
+      </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -10159,7 +11011,7 @@
       </c>
       <c r="H9" s="15">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -10178,7 +11030,9 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="X9" s="1">
+        <v>2000</v>
+      </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -10190,8 +11044,12 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>2000</v>
+      </c>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
@@ -10225,7 +11083,7 @@
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -10246,16 +11104,26 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="1">
+        <v>5000</v>
+      </c>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="23">
+        <v>5000</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="AA10" s="23">
+        <v>4150</v>
+      </c>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="AC10" s="1">
+        <v>850</v>
+      </c>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="AE10" s="1">
+        <v>5000</v>
+      </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -10298,7 +11166,7 @@
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -10314,7 +11182,9 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="23">
+        <v>4000</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -10324,7 +11194,9 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AG11" s="23">
+        <v>2000</v>
+      </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -10359,7 +11231,7 @@
       </c>
       <c r="H12" s="15">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>5200</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -10377,7 +11249,9 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1">
+        <v>1700</v>
+      </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -10388,7 +11262,9 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AH12" s="1">
+        <v>2000</v>
+      </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -10425,7 +11301,7 @@
       </c>
       <c r="H13" s="15">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -10448,22 +11324,30 @@
         <v>5000</v>
       </c>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1">
+        <v>5000</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="23">
+        <v>5000</v>
+      </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="1">
+        <v>5000</v>
+      </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="AK13" s="23">
+        <v>5000</v>
+      </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
@@ -10500,7 +11384,7 @@
       </c>
       <c r="H14" s="15">
         <f t="shared" si="0"/>
-        <v>14300</v>
+        <v>32500</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -10523,21 +11407,35 @@
         <v>3000</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1">
+        <v>1000</v>
+      </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="23">
+        <v>2000</v>
+      </c>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="Z14" s="23">
+        <v>2200</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>1500</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>3800</v>
+      </c>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="23">
+        <v>2000</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
+      <c r="AJ14" s="1">
+        <v>5700</v>
+      </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -10572,7 +11470,7 @@
       </c>
       <c r="H15" s="15">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -10590,17 +11488,23 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1">
+        <v>2000</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="1">
+        <v>6000</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -10707,7 +11611,7 @@
       </c>
       <c r="H17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -10728,7 +11632,9 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
+      <c r="AB17" s="1">
+        <v>8000</v>
+      </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -10768,7 +11674,7 @@
       </c>
       <c r="H18" s="15">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -10784,7 +11690,9 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="U18" s="23">
+        <v>2000</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -10797,7 +11705,9 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
+      <c r="AH18" s="1">
+        <v>1000</v>
+      </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -10837,7 +11747,7 @@
       </c>
       <c r="H19" s="15">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -10854,7 +11764,9 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="23">
+        <v>3000</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -10864,7 +11776,9 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
+      <c r="AF19" s="23">
+        <v>3000</v>
+      </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -10906,7 +11820,7 @@
       </c>
       <c r="H20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -10925,7 +11839,9 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="1">
+        <v>8000</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -10936,7 +11852,9 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
+      <c r="AK20" s="1">
+        <v>5000</v>
+      </c>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
@@ -10973,7 +11891,7 @@
       </c>
       <c r="H21" s="15">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -10995,13 +11913,17 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="W21" s="1">
+        <v>2000</v>
+      </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="AC21" s="23">
+        <v>2000</v>
+      </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
@@ -11043,7 +11965,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -11069,13 +11991,19 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="AE22" s="1">
+        <v>1000</v>
+      </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="AH22" s="1">
+        <v>1000</v>
+      </c>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
+      <c r="AK22" s="1">
+        <v>1000</v>
+      </c>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
@@ -11112,7 +12040,7 @@
       </c>
       <c r="H23" s="15">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -11136,20 +12064,25 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="23">
+        <v>6000</v>
+      </c>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
+      <c r="AH23" s="1">
+        <v>6000</v>
+      </c>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
+      <c r="AL23" s="23">
+        <v>5000</v>
+      </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -11179,7 +12112,7 @@
       </c>
       <c r="H24" s="15">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -11208,11 +12141,15 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+      <c r="AD24" s="1">
+        <v>1500</v>
+      </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
+      <c r="AH24" s="1">
+        <v>500</v>
+      </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -11252,7 +12189,7 @@
       </c>
       <c r="H25" s="15">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
@@ -11275,20 +12212,28 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="X25" s="1">
+        <v>2000</v>
+      </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
+      <c r="AA25" s="1">
+        <v>2000</v>
+      </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="AG25" s="1">
+        <v>2000</v>
+      </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
+      <c r="AK25" s="1">
+        <v>4000</v>
+      </c>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -11325,7 +12270,7 @@
       </c>
       <c r="H26" s="15">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="23">
@@ -11348,19 +12293,27 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="23">
+        <v>5000</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="23">
+        <v>5000</v>
+      </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AD26" s="23">
+        <v>5000</v>
+      </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
+      <c r="AH26" s="23">
+        <v>5000</v>
+      </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -11394,7 +12347,7 @@
       </c>
       <c r="H27" s="15">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -11413,21 +12366,31 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="X27" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1500</v>
+      </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="1">
+        <v>6500</v>
+      </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>2000</v>
+      </c>
       <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
+      <c r="AL27" s="1">
+        <v>1000</v>
+      </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -11460,7 +12423,7 @@
       </c>
       <c r="H28" s="15">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
@@ -11481,19 +12444,27 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="X28" s="1">
+        <v>3000</v>
+      </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="AB28" s="23">
+        <v>2000</v>
+      </c>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AD28" s="1">
+        <v>2000</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
+      <c r="AJ28" s="1">
+        <v>2000</v>
+      </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -11528,7 +12499,7 @@
       </c>
       <c r="H29" s="15">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -11560,7 +12531,9 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
+      <c r="AI29" s="23">
+        <v>4000</v>
+      </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
@@ -11593,7 +12566,7 @@
       </c>
       <c r="H30" s="15">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
@@ -11620,14 +12593,18 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
+      <c r="AD30" s="1">
+        <v>2000</v>
+      </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
+      <c r="AK30" s="1">
+        <v>2000</v>
+      </c>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
@@ -11661,7 +12638,7 @@
       </c>
       <c r="H31" s="15">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -11681,15 +12658,21 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="W31" s="23">
+        <v>2000</v>
+      </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="AC31" s="23">
+        <v>2000</v>
+      </c>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
+      <c r="AE31" s="23">
+        <v>2000</v>
+      </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -11729,7 +12712,7 @@
       </c>
       <c r="H32" s="15">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I32" s="23">
         <v>10000</v>
@@ -11753,21 +12736,29 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="W32" s="23">
+        <v>5000</v>
+      </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="AA32" s="23">
+        <v>5000</v>
+      </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
+      <c r="AD32" s="23">
+        <v>5000</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
+      <c r="AK32" s="23">
+        <v>10000</v>
+      </c>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
@@ -11795,7 +12786,7 @@
       </c>
       <c r="H33" s="15">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
@@ -11818,21 +12809,33 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+      <c r="X33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>1000</v>
+      </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
+      <c r="AE33" s="1">
+        <v>1000</v>
+      </c>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
+      <c r="AG33" s="1">
+        <v>1000</v>
+      </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>1000</v>
+      </c>
       <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
+      <c r="AL33" s="1">
+        <v>1000</v>
+      </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -11865,7 +12868,7 @@
       </c>
       <c r="H34" s="15">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="I34" s="1">
         <v>4000</v>
@@ -11891,16 +12894,22 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
+      <c r="AA34" s="1">
+        <v>2000</v>
+      </c>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="AC34" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
+      <c r="AJ34" s="1">
+        <v>2000</v>
+      </c>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
@@ -11932,7 +12941,7 @@
       </c>
       <c r="H35" s="15">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="I35" s="1">
         <v>3000</v>
@@ -11959,18 +12968,24 @@
         <v>2000</v>
       </c>
       <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="1">
+        <v>2000</v>
+      </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
+      <c r="AC35" s="1">
+        <v>2000</v>
+      </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
+      <c r="AG35" s="1">
+        <v>2000</v>
+      </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -12008,7 +13023,7 @@
       </c>
       <c r="H36" s="15">
         <f t="shared" ref="H36:H67" si="2">SUM(I36:AM36)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -12039,7 +13054,9 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
+      <c r="AL36" s="23">
+        <v>2000</v>
+      </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -12069,7 +13086,7 @@
       </c>
       <c r="H37" s="15">
         <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -12093,20 +13110,26 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="W37" s="23">
+        <v>5000</v>
+      </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
+      <c r="AC37" s="23">
+        <v>5000</v>
+      </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="23">
+        <v>5000</v>
+      </c>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
@@ -12199,7 +13222,7 @@
       </c>
       <c r="H39" s="15">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -12226,7 +13249,9 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
+      <c r="AD39" s="23">
+        <v>5000</v>
+      </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -12270,7 +13295,7 @@
       </c>
       <c r="H40" s="15">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -12297,14 +13322,18 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
+      <c r="AB40" s="23">
+        <v>2000</v>
+      </c>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
+      <c r="AI40" s="23">
+        <v>2000</v>
+      </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
@@ -12337,7 +13366,7 @@
       </c>
       <c r="H41" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -12354,18 +13383,26 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="V41" s="1">
+        <v>2000</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="1">
+        <v>2000</v>
+      </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
+      <c r="AD41" s="1">
+        <v>2000</v>
+      </c>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
+      <c r="AG41" s="1">
+        <v>2000</v>
+      </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -12400,7 +13437,7 @@
       </c>
       <c r="H42" s="15">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="I42" s="1">
         <v>2000</v>
@@ -12425,17 +13462,23 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
+      <c r="Z42" s="23">
+        <v>2000</v>
+      </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
+      <c r="AG42" s="1">
+        <v>2000</v>
+      </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
+      <c r="AJ42" s="1">
+        <v>2000</v>
+      </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
@@ -12470,7 +13513,7 @@
       </c>
       <c r="H43" s="15">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="I43" s="1">
         <v>4000</v>
@@ -12497,23 +13540,37 @@
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="V43" s="1">
+        <v>2000</v>
+      </c>
       <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
+      <c r="X43" s="23">
+        <v>3000</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>3000</v>
+      </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
+      <c r="AD43" s="1">
+        <v>6000</v>
+      </c>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
+      <c r="AH43" s="1">
+        <v>2000</v>
+      </c>
       <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>2000</v>
+      </c>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
+      <c r="AL43" s="1">
+        <v>2000</v>
+      </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
@@ -12543,7 +13600,7 @@
       </c>
       <c r="H44" s="15">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="23">
@@ -12563,7 +13620,9 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+      <c r="W44" s="23">
+        <v>2000</v>
+      </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -12608,7 +13667,7 @@
       </c>
       <c r="H45" s="15">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -12628,16 +13687,22 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
+      <c r="W45" s="23">
+        <v>5000</v>
+      </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
+      <c r="AC45" s="23">
+        <v>5000</v>
+      </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
+      <c r="AF45" s="23">
+        <v>5000</v>
+      </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
@@ -12676,7 +13741,7 @@
       </c>
       <c r="H46" s="15">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="I46" s="1">
         <v>7000</v>
@@ -12700,18 +13765,24 @@
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
+      <c r="W46" s="1">
+        <v>2000</v>
+      </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
+      <c r="AA46" s="23">
+        <v>4000</v>
+      </c>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
+      <c r="AH46" s="1">
+        <v>4000</v>
+      </c>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -12745,7 +13816,7 @@
       </c>
       <c r="H47" s="15">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -12767,21 +13838,31 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
+      <c r="W47" s="23">
+        <v>2000</v>
+      </c>
+      <c r="X47" s="23">
+        <v>2000</v>
+      </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
+      <c r="AA47" s="23">
+        <v>2000</v>
+      </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
+      <c r="AG47" s="23">
+        <v>2000</v>
+      </c>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
+      <c r="AK47" s="1">
+        <v>2000</v>
+      </c>
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
@@ -12818,7 +13899,7 @@
       </c>
       <c r="H48" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -12837,7 +13918,9 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
+      <c r="X48" s="23">
+        <v>2000</v>
+      </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
@@ -12851,7 +13934,9 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
+      <c r="AL48" s="23">
+        <v>2000</v>
+      </c>
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
       <c r="AO48" s="1"/>
@@ -12962,7 +14047,7 @@
       </c>
       <c r="H50" s="15">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -12984,18 +14069,24 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
+      <c r="AA50" s="23">
+        <v>4000</v>
+      </c>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
+      <c r="AG50" s="23">
+        <v>2000</v>
+      </c>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
+      <c r="AL50" s="23">
+        <v>2000</v>
+      </c>
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>
@@ -13028,7 +14119,7 @@
       </c>
       <c r="H51" s="15">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
@@ -13061,10 +14152,14 @@
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
+      <c r="AH51" s="23">
+        <v>2000</v>
+      </c>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
+      <c r="AK51" s="1">
+        <v>2000</v>
+      </c>
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
@@ -13156,7 +14251,7 @@
       </c>
       <c r="H53" s="15">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="I53" s="23">
         <v>4000</v>
@@ -13178,8 +14273,12 @@
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
+      <c r="W53" s="1">
+        <v>2000</v>
+      </c>
+      <c r="X53" s="23">
+        <v>2000</v>
+      </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
@@ -13220,7 +14319,7 @@
       </c>
       <c r="H54" s="15">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="I54" s="1">
         <v>4000</v>
@@ -13244,18 +14343,24 @@
       </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
+      <c r="W54" s="1">
+        <v>2000</v>
+      </c>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
+      <c r="AA54" s="23">
+        <v>4000</v>
+      </c>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
+      <c r="AH54" s="1">
+        <v>4000</v>
+      </c>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
@@ -13356,7 +14461,7 @@
       </c>
       <c r="H56" s="15">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -13375,14 +14480,20 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
+      <c r="X56" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Y56" s="23">
+        <v>1000</v>
+      </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
+      <c r="AE56" s="23">
+        <v>1000</v>
+      </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -13483,7 +14594,7 @@
       </c>
       <c r="H58" s="15">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
@@ -13507,14 +14618,18 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
+      <c r="AA58" s="23">
+        <v>4000</v>
+      </c>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
+      <c r="AH58" s="1">
+        <v>2000</v>
+      </c>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
@@ -13551,7 +14666,7 @@
       </c>
       <c r="H59" s="15">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -13573,7 +14688,9 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="1">
+        <v>5000</v>
+      </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -13581,7 +14698,9 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
+      <c r="AG59" s="1">
+        <v>10000</v>
+      </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -13616,7 +14735,7 @@
       </c>
       <c r="H60" s="15">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
@@ -13634,7 +14753,9 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
+      <c r="U60" s="23">
+        <v>5000</v>
+      </c>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
@@ -13644,7 +14765,9 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
+      <c r="AE60" s="23">
+        <v>5000</v>
+      </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -13684,7 +14807,7 @@
       </c>
       <c r="H61" s="15">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -13704,7 +14827,9 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
+      <c r="Y61" s="1">
+        <v>2000</v>
+      </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
@@ -13753,7 +14878,7 @@
       </c>
       <c r="H62" s="15">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>37000</v>
       </c>
       <c r="I62" s="1">
         <v>2000</v>
@@ -13776,21 +14901,27 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
+      <c r="X62" s="23">
+        <v>7000</v>
+      </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
+      <c r="AE62" s="23">
+        <v>5000</v>
+      </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
+      <c r="AL62" s="1">
+        <v>10000</v>
+      </c>
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
       <c r="AO62" s="1"/>
@@ -13887,7 +15018,7 @@
       </c>
       <c r="H64" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -13903,7 +15034,9 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
+      <c r="W64" s="23">
+        <v>5000</v>
+      </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -13954,7 +15087,7 @@
       </c>
       <c r="H65" s="15">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -13975,11 +15108,15 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
+      <c r="X65" s="23">
+        <v>2000</v>
+      </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
+      <c r="AB65" s="23">
+        <v>2000</v>
+      </c>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
@@ -13987,7 +15124,9 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
+      <c r="AJ65" s="23">
+        <v>2000</v>
+      </c>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
@@ -14022,7 +15161,7 @@
       </c>
       <c r="H66" s="15">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="I66" s="23">
         <v>1000</v>
@@ -14044,18 +15183,24 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
+      <c r="U66" s="23">
+        <v>2000</v>
+      </c>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
+      <c r="Z66" s="23">
+        <v>2000</v>
+      </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
+      <c r="AF66" s="23">
+        <v>2000</v>
+      </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
@@ -14091,7 +15236,7 @@
       </c>
       <c r="H67" s="15">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
@@ -14124,7 +15269,9 @@
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
+      <c r="AJ67" s="1">
+        <v>3000</v>
+      </c>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
@@ -14153,7 +15300,7 @@
       </c>
       <c r="H68" s="15">
         <f t="shared" ref="H68:H96" si="3">SUM(I68:AM68)</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1">
@@ -14173,7 +15320,9 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+      <c r="Y68" s="1">
+        <v>6000</v>
+      </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -14213,7 +15362,7 @@
       </c>
       <c r="H69" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -14231,7 +15380,9 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
+      <c r="W69" s="1">
+        <v>2000</v>
+      </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -14242,11 +15393,15 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
+      <c r="AH69" s="23">
+        <v>3000</v>
+      </c>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
+      <c r="AL69" s="23">
+        <v>4000</v>
+      </c>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
@@ -14276,7 +15431,7 @@
       </c>
       <c r="H70" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -14307,7 +15462,9 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
+      <c r="AJ70" s="1">
+        <v>2000</v>
+      </c>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
@@ -14336,7 +15493,7 @@
       </c>
       <c r="H71" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -14352,7 +15509,9 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
+      <c r="W71" s="1">
+        <v>2000</v>
+      </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
@@ -14360,7 +15519,9 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
+      <c r="AE71" s="1">
+        <v>2000</v>
+      </c>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -14397,7 +15558,7 @@
       </c>
       <c r="H72" s="15">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -14417,20 +15578,28 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
+      <c r="W72" s="1">
+        <v>15000</v>
+      </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
+      <c r="Z72" s="23">
+        <v>5000</v>
+      </c>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
+      <c r="AD72" s="23">
+        <v>5000</v>
+      </c>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
+      <c r="AJ72" s="23">
+        <v>10000</v>
+      </c>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
@@ -14462,7 +15631,7 @@
       </c>
       <c r="H73" s="15">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -14483,21 +15652,33 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
+      <c r="X73" s="23">
+        <v>6000</v>
+      </c>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
+      <c r="AA73" s="23">
+        <v>2000</v>
+      </c>
+      <c r="AB73" s="23">
+        <v>2000</v>
+      </c>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
+      <c r="AE73" s="23">
+        <v>2000</v>
+      </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
+      <c r="AH73" s="23">
+        <v>2000</v>
+      </c>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
+      <c r="AL73" s="23">
+        <v>2000</v>
+      </c>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
@@ -14533,7 +15714,7 @@
       </c>
       <c r="H74" s="15">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -14553,13 +15734,17 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
+      <c r="W74" s="23">
+        <v>2000</v>
+      </c>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
+      <c r="AC74" s="23">
+        <v>2000</v>
+      </c>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
@@ -14568,7 +15753,9 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
+      <c r="AL74" s="23">
+        <v>4000</v>
+      </c>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
@@ -14656,7 +15843,7 @@
       </c>
       <c r="H76" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -14687,7 +15874,9 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
+      <c r="AJ76" s="1">
+        <v>1000</v>
+      </c>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
@@ -14725,7 +15914,7 @@
       </c>
       <c r="H77" s="15">
         <f t="shared" si="3"/>
-        <v>6900</v>
+        <v>13500</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -14749,18 +15938,24 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
+      <c r="AA77" s="23">
+        <v>2800</v>
+      </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
+      <c r="AE77" s="1">
+        <v>2200</v>
+      </c>
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
+      <c r="AL77" s="1">
+        <v>1600</v>
+      </c>
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
@@ -14793,7 +15988,7 @@
       </c>
       <c r="H78" s="15">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -14812,21 +16007,29 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
+      <c r="V78" s="23">
+        <v>5000</v>
+      </c>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
+      <c r="Z78" s="23">
+        <v>5000</v>
+      </c>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
+      <c r="AD78" s="23">
+        <v>5000</v>
+      </c>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
+      <c r="AJ78" s="23">
+        <v>5000</v>
+      </c>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
@@ -14861,7 +16064,7 @@
       </c>
       <c r="H79" s="15">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -14878,23 +16081,33 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
+      <c r="V79" s="1">
+        <v>2000</v>
+      </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
+      <c r="AC79" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>2000</v>
+      </c>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
+      <c r="AH79" s="23">
+        <v>4000</v>
+      </c>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
+      <c r="AL79" s="23">
+        <v>2000</v>
+      </c>
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
@@ -14985,7 +16198,7 @@
       </c>
       <c r="H81" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -15004,7 +16217,9 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
+      <c r="X81" s="23">
+        <v>2000</v>
+      </c>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
@@ -15012,13 +16227,17 @@
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
+      <c r="AF81" s="23">
+        <v>2000</v>
+      </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
+      <c r="AL81" s="23">
+        <v>2000</v>
+      </c>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
@@ -15100,7 +16319,7 @@
       </c>
       <c r="H83" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1">
@@ -15116,7 +16335,9 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
+      <c r="U83" s="23">
+        <v>2000</v>
+      </c>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
@@ -15125,7 +16346,9 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
+      <c r="AD83" s="23">
+        <v>2000</v>
+      </c>
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
@@ -15221,7 +16444,7 @@
       </c>
       <c r="H85" s="15">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="I85" s="1">
         <v>5000</v>
@@ -15241,9 +16464,13 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
+      <c r="W85" s="23">
+        <v>10000</v>
+      </c>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
+      <c r="Y85" s="23">
+        <v>5000</v>
+      </c>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
@@ -15286,7 +16513,7 @@
       </c>
       <c r="H86" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -15301,7 +16528,9 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
+      <c r="V86" s="1">
+        <v>5000</v>
+      </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
@@ -15417,7 +16646,7 @@
       </c>
       <c r="H88" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -15432,7 +16661,9 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
+      <c r="V88" s="23">
+        <v>2000</v>
+      </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
@@ -15440,13 +16671,17 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
+      <c r="AD88" s="23">
+        <v>2000</v>
+      </c>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
+      <c r="AJ88" s="23">
+        <v>2000</v>
+      </c>
       <c r="AK88" s="1"/>
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
@@ -15533,7 +16768,7 @@
       </c>
       <c r="H90" s="15">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -15551,19 +16786,27 @@
       </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
+      <c r="U90" s="23">
+        <v>1000</v>
+      </c>
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
+      <c r="Z90" s="23">
+        <v>2000</v>
+      </c>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
+      <c r="AE90" s="23">
+        <v>1000</v>
+      </c>
       <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
+      <c r="AG90" s="23">
+        <v>1000</v>
+      </c>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
@@ -15592,7 +16835,7 @@
       </c>
       <c r="H91" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -15609,7 +16852,9 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
+      <c r="X91" s="23">
+        <v>1000</v>
+      </c>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
@@ -15774,7 +17019,7 @@
       </c>
       <c r="H94" s="15">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -15799,7 +17044,9 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
+      <c r="AD94" s="23">
+        <v>2000</v>
+      </c>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
@@ -16557,7 +17804,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D91"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -16593,11 +17840,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>243700</v>
+        <v>218200</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>243700</v>
+        <v>218200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16612,7 +17859,7 @@
       </c>
       <c r="D3" s="10">
         <f>Orders!F3-Collection!H3</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16627,7 +17874,7 @@
       </c>
       <c r="D4" s="10">
         <f>Orders!F4-Collection!H4</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16642,7 +17889,7 @@
       </c>
       <c r="D5" s="10">
         <f>Orders!F5-Collection!H5</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -16657,7 +17904,7 @@
       </c>
       <c r="D6" s="10">
         <f>Orders!F6-Collection!H6</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16672,7 +17919,7 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>13000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16687,7 +17934,7 @@
       </c>
       <c r="D8" s="10">
         <f>Orders!F8-Collection!H8</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16732,7 +17979,7 @@
       </c>
       <c r="D11" s="10">
         <f>Orders!F11-Collection!H11</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -16747,7 +17994,7 @@
       </c>
       <c r="D12" s="10">
         <f>Orders!F12-Collection!H12</f>
-        <v>2500</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16777,7 +18024,7 @@
       </c>
       <c r="D14" s="10">
         <f>Orders!F14-Collection!H14</f>
-        <v>4200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -16807,7 +18054,7 @@
       </c>
       <c r="D16" s="10">
         <f>Orders!F16-Collection!H16</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16822,7 +18069,7 @@
       </c>
       <c r="D17" s="10">
         <f>Orders!F17-Collection!H17</f>
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -16837,7 +18084,7 @@
       </c>
       <c r="D18" s="10">
         <f>Orders!F18-Collection!H18</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -16852,7 +18099,7 @@
       </c>
       <c r="D19" s="10">
         <f>Orders!F19-Collection!H19</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16867,7 +18114,7 @@
       </c>
       <c r="D20" s="10">
         <f>Orders!F20-Collection!H20</f>
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -16882,7 +18129,7 @@
       </c>
       <c r="D21" s="10">
         <f>Orders!F21-Collection!H21</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -16897,7 +18144,7 @@
       </c>
       <c r="D22" s="10">
         <f>Orders!F22-Collection!H22</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -16912,7 +18159,7 @@
       </c>
       <c r="D23" s="10">
         <f>Orders!F23-Collection!H23</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -16927,7 +18174,7 @@
       </c>
       <c r="D24" s="10">
         <f>Orders!F24-Collection!H24</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -16972,7 +18219,7 @@
       </c>
       <c r="D27" s="10">
         <f>Orders!F27-Collection!H27</f>
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -16987,7 +18234,7 @@
       </c>
       <c r="D28" s="10">
         <f>Orders!F28-Collection!H28</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -17017,7 +18264,7 @@
       </c>
       <c r="D30" s="10">
         <f>Orders!F30-Collection!H30</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -17047,7 +18294,7 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -17077,7 +18324,7 @@
       </c>
       <c r="D34" s="10">
         <f>Orders!F34-Collection!H34</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -17092,7 +18339,7 @@
       </c>
       <c r="D35" s="10">
         <f>Orders!F35-Collection!H35</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -17152,7 +18399,7 @@
       </c>
       <c r="D39" s="10">
         <f>Orders!F39-Collection!H39</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -17242,7 +18489,7 @@
       </c>
       <c r="D45" s="10">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -17257,7 +18504,7 @@
       </c>
       <c r="D46" s="10">
         <f>Orders!F46-Collection!H46</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -17272,7 +18519,7 @@
       </c>
       <c r="D47" s="10">
         <f>Orders!F47-Collection!H47</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -17287,7 +18534,7 @@
       </c>
       <c r="D48" s="10">
         <f>Orders!F48-Collection!H48</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -17317,7 +18564,7 @@
       </c>
       <c r="D50" s="10">
         <f>Orders!F50-Collection!H50</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17362,7 +18609,7 @@
       </c>
       <c r="D53" s="10">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -17377,7 +18624,7 @@
       </c>
       <c r="D54" s="10">
         <f>Orders!F54-Collection!H54</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17407,7 +18654,7 @@
       </c>
       <c r="D56" s="10">
         <f>Orders!F56-Collection!H56</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -17467,7 +18714,7 @@
       </c>
       <c r="D60" s="10">
         <f>Orders!F60-Collection!H60</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -17497,7 +18744,7 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -17557,7 +18804,7 @@
       </c>
       <c r="D66" s="10">
         <f>Orders!F66-Collection!H66</f>
-        <v>8000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -17572,7 +18819,7 @@
       </c>
       <c r="D67" s="10">
         <f>Orders!F67-Collection!H67</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -17587,7 +18834,7 @@
       </c>
       <c r="D68" s="10">
         <f>Orders!F68-Collection!H68</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -17647,7 +18894,7 @@
       </c>
       <c r="D72" s="10">
         <f>Orders!F72-Collection!H72</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -17662,7 +18909,7 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -17677,7 +18924,7 @@
       </c>
       <c r="D74" s="10">
         <f>Orders!F74-Collection!H74</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -17707,7 +18954,7 @@
       </c>
       <c r="D76" s="10">
         <f>Orders!F76-Collection!H76</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -17722,7 +18969,7 @@
       </c>
       <c r="D77" s="10">
         <f>Orders!F77-Collection!H77</f>
-        <v>7400</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -17752,7 +18999,7 @@
       </c>
       <c r="D79" s="10">
         <f>Orders!F79-Collection!H79</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -17804,7 +19051,7 @@
       </c>
       <c r="D83" s="10">
         <f>Orders!F83-Collection!H83</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -17875,7 +19122,7 @@
       </c>
       <c r="D88" s="10">
         <f>Orders!F88-Collection!H88</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -17901,7 +19148,7 @@
       </c>
       <c r="D90" s="10">
         <f>Orders!F90-Collection!H90</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -17916,7 +19163,7 @@
       </c>
       <c r="D91" s="10">
         <f>Orders!F91-Collection!H91</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -17931,7 +19178,7 @@
       </c>
       <c r="D92" s="10">
         <f>Orders!F92-Collection!H92</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -17957,7 +19204,7 @@
       </c>
       <c r="D94" s="10">
         <f>Orders!F94-Collection!H94</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:4">
